--- a/src/main/resources/init-data/cleaned_crop.xlsx
+++ b/src/main/resources/init-data/cleaned_crop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4372,1054 +4372,1018 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>가지</t>
+          <t>제주보리</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. 흑진주  과실껍질(果皮)은 흑자색으로 윤이 나며, 과육(果肉)이 연하여 상품성이 우수하다. 과실 길이는 30cm정도이다.    2. 쇠뿔가지  우리나라 농가에서 가장 많이 재배하고 있는 재래종인데 쇠뿔같이 생긴 가지 를 일괄하 여 일컬으며, 모양과 크기는 지방에 따라 약간씩 다르다. 과실껍질이 두껍고, 검정 보라색(黑紫色)이 나며, 과육이 단단하고, 내서성(耐署性)이 강하다.    3. 흑산호  과실 길이가 30cm정도로 짙은 검정보라색을 띠며, 광택이 강하고, 꼭지부위 까지 완전히 착색된다.    4. 가락장가지  과실 길이가 25~30cm인 조생종으로 상하 굵기가 일정하며, 과육이 부드럽다 </t>
+          <t xml:space="preserve">양질 내도복 다수성 신품종을 육성하고자 보안진-하가네무기를 모본으로 하고 삼흥-유난을 부본으로 하여 선발된 내도복성이 강한 중간모본인 77460-B-180을 모본으로 하고 내한성이 강하고 장간인 2조 수원212호를 부본으로 하여 1982년에 교배하여 1983년 수원에서 F1을 양성하였으며 1984년에는 광주에서 F2를 집단으로 육성하여 F3는 진주에서 F4는 수원에서 육성하여 82552-BK-19J-4-0 계통을 선발하였다. 선발한 이 계통을 1987년에 광주, 진주, 제주 3개 지역에서 생산력검정예비시험, 1988년에는 생산력검정본시험에 공시하여 생산성과 주요특성을 검정하였다. 그 결과 내한, 내도복, 준단간, 다수성 계통으로 유망하여 이 계통을 수원264호로 계통명을 부여하고 지역적응시험에 공시하였다. 1989년부터 3년간 지역적응시험을 수행한 결과 양질, 내도복 다수성인 계통으로 평가되었으며 특히 제주도에서 적응성이 높았다. 1992년 제주도에서 실시한 농가실증시험 결과에서도 그 특성이 우수하여 1992년 주요농작물 종자협의회에서 ‘제주보리’로 명명하였으며 제주도의 장려품종으로 결정되었다.  </t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>방울토마토</t>
+          <t>진양보리</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>1. 뽀또  가. 특성  ○ 저온착과력이 우수한 풍산성이다. 화방전개가 많아 후기까지 수량성이 높다.  ○ 착색균일도가 우수하며 열과발생이 적어 재배가 용이하다.  ○ 내병성이 강하여 시설재배에 적합하다.    나. 재배형 : 억제, 촉성, 반촉성   다. 유의사항  ○ 정식시는 1번화가 전개될 무렵으로 1단과부터 확실히 착과시켜야 한다  ○ 기비의 질소량을 적게 하고 추비 위주로 재배해야 한다.  ○ 시설내 과습을 피하며 측지제거와 유인으로 채광 및 통풍을 좋게 해야 한다  2. 토토  가. 특성  ○ 조생으로 과중 20g 내외의 방울토마토이다.  ○ 잎이 무성하지 않아서 광투과가 좋고 착과성 및 상품성이 좋다.  ○ 1화방에 50과 이상 착과되는 다수성 품종이다.    나. 재배형 : 반촉성   다. 유의사항  ○ 연속 착과성이 좋은 다수계 품종이므로 비료분이 부족하지 않게 기비로 퇴비를 충분히 시용하고, 추비는 3화방 개화기에 1차 추비를 실시한다.  ○ 착과 호르몬 처리는 토마토톤 100배(저온기)~130배(고온기)를 화방별로 3~4개의 꽃이 피었을 때 처리하고 20화 이상 피었을 때 한번 더 처리한다.   3. 다다기  가. 특성  ○ 미니토마토 품종중에서 숙기가 빠르며 큰 방울토마토이다.  ○ 1화방당 50개 정도의 착과로 다수성이다.  ○ 저온 신장력이 탁월하다. 바이러스에 비교적 강한 편이다.    나. 재배형 : 반촉성, 촉성, 억제   다. 유의사항  ○ 1차 추비는 3화방 개화전 실시하며 초세에 따라 시비량을 조절한다.  ○ 측지발생이 빠르고 엽색이 짙으며 절간이 짧은 것은 화지가 짧고 부정형이며 개화후 착과가 불량하므로 정식전에 뽑아버린다.  ○ 정식은 반드시 1화방의 첫꽃이 필 무렵에 실시하고 1화방 형성이 충실하지 못하거나 지나치게 복화방인 것은 정식시 도태시킨다.  ○ 흡비력이 강하여 질소질을 과용하면 착과 및 과실비대가 불량하므로 질소질은 기비보다 추비로 초세에 따라 조절한다.   4. 미니킹  가. 특성  ○ 평균과중 17~23g으로 타원형의 선홍색 방울토마토이다.  ○ 조생종으로 숙기가 빠르고 이상경현상이 적어 재배가 용이하다.  ○ 1~2단은 15~25과를 수확할 수 있고 3단 이후부터는 30~60과를 수확할 수 있다.  ○ 바이러스, 반점병, 위조병에 내병성이 있다.    나. 재배작형 : 촉성, 반촉성, 억제   다. 유의점  ○ 육묘중 온도관리는 기온이 주간 25~28℃, 야간 15~18℃로 유지시켜 묘를 튼튼하게 키운다.  ○ 육묘중 5% 내외의 생육불량주가 발생할 수 있으므로 묘상에서 제거하고 정식후 생육불량주는 제거하여 옆주의 곁가지를 키워 공간을 활용한다.  ○ 토마토 톤은 적정농도로 꽃이 필 때 처리해 주고 중복해서 처리하지 않도록 주의한다.  ○ 제 4단 화방의 개화기로부터 추비를 시작하고 그 후 10~15일 간격으로 초세를 고려하여 질소와 칼리를 적당히 시비한다.   5. 미니스타  가. 특성  ○ 과중 15~20g으로 원형의 방울토마토이다.  ○ 1~3단 까지는 화방당 15~30개의 과를 수확할 수 있고 3단 이후부터는 화방당 50~60과를 수확할 수 있다.  ○ 엽색이 진하고 초세가 안정되어 있어 재배가 용이하다.  ○ 바이러스(Tm-2), 선충(N), 위조병 레이스-1(F-1), 잎곰팡이병(CL), 반점병(LS)에 내병성이다.    나. 재배작형 : 촉성, 반촉성  6. 알알이  가. 특성  ○ 선홍색으로 색택과 모양이 우수하다.  ○ 과형은 구형이고 과중이 16 - 18g이다.    나. 재배작형 : 반촉성   다. 유의사항  ○ 파종 후 발아될 때까지는 묘상온도를 25~28℃로 유지하여 발아시일을 단축시킨다.  ○ 육묘 중기부터는 주간 25~28℃, 야간 15~18℃로 유지시켜 야랭육묘하여 묘를 충실하게 키운다.  ○ 육묘기에 고온 및 과습으로 인하여 도장묘가 생길 우려가 많으므로 온도 및 수분관리를 철저히 한다.  ○ 정식 7~6일 전부터 묘굳히기를 실시하여 정식후 불량한 환경하에 견디는 힘을 강하게 해주고 정식적기는 1화 방의 개화 직전부터 일부 개화된 묘가 이상적이다.  ○ 4단 화방 개화기부터 추비를 시작하고 그후 7~10 일 간격으로 초세를 고려하여 적당히 시비한다  7. 미니캐롤  가. 특성  ○ TMV(Tm-2a형), 위조병, 반점병에 저항성이고 선충에도 강한 극조생 미니토마토이다.  ○ 잎은 소엽으로 흑엽이며 절간이 약간 짧고 이상경의 발생이 적다. 다화성으로 춘작에서는 30화 전후, 억제재배 에서는 1화방당 100~200화가 되는 것도 있으며 착과성이 극히 양호하다.  ○ 과실은 15~20g 전후의 원형으로 순도가 고르며 조부과, 공동과, 기형과 발생이 극히 적고 열과에도 매우 강하다. 당도가 8~10도이며 식미가 극히 양호하다.    나. 재배형 : 월동장기, 촉성, 반촉성, 무가온 및 비가림, 하우스 억제   다. 유의사항  ○ 억제재배가 기본이며 기비는 적은 듯이 하고 정식도 춘작에서는 개화후에 노화된 듯한 묘를 정식한다.  ○ 추비와 관수는 초세를 보아가면서 5단화방 개화기 이후에 실시하고 억제재배에서는 약간 빨리 추비하는 것이 좋다.    8. 킹캐롤  가. 특성  ○ TMV(Tm-2a형), 위조병(R-1, 2), 고구마 뿌리혹선충, 반점병에 저항성이고 청고병, 반신위조병에 내병성인 복합내병충성의 대과종 미니토마토이다.  ○ 초세는 강건하지만 과번무하지 않아 이상경 발생이 거의 없으며 흑엽의 소엽으로 수광상태가 좋아 약일조하에서도 채광이 유리하며 기존의 타품종에 비해 평당 1주 정도 더 밀식재배가 가능하다.  ○ 숙기는 조생이고 평균 과중은 20~25g 정도이며 과형은 원형이고 과색은 광택있는 선홍색이다. 특히 당도가 9~11도 이상으로 감미가 강하고 과피는 부드러우면서도 탄력이 있어 열과에 강하고 식미가 좋다.  ○ 화방착생은 저단은 싱글화방 중심이고 중단부터 더불화방이 발생하며 1화방당 착과수는 재배시기에 따라 차이가 있으나 평균 20~25과 정도이다.    나. 재배형 : 촉성, 반촉성, 하추비가림, 하우스억제   다. 유의사항  ○ 이 품종에는 유전적으로 이형주가 10% 정도 발생한다. 이형주는 묘시기(파종후 30~40일)에 완전하게 구별하는 것이 가능하므로 육묘시기에 철저히 제거해 주어야 한다.  ○ 이품종은 전작형에 적응하지만 초세가 강하지 않은 품종이므로 월동장기재배시에는 지효성 퇴비를 충분히 시용하고 비료부족이 되지 않도록 추비를 잘 한다.   9. 캐롤세븐  가. 특성  ○ TMV(Tm-2a형), 위조병(R-1, 2), 고구마 뿌리혹선충, 반점병에 저항성이고 청고병, 반신위조병에 내병성인 복합내병충성의 미니토마토이다.  ○ 50~80화의 다화성이고 착과성이 우수하며 과방의 선단까지 착색되어도 열과, 낙과하는 일이 없어 과방수확이 가능하며 수확폭이 넓은 품종이다.  ○ 평균 과중은 10~12g 정도이며 과형은 원형이고 과색은 광택있는 선홍색이다. 당도는 8~10도 이상으로 감미가 강하고 과피가 부드러워 식미가 좋다.  ○ 초자는 극소엽으로 적엽작업의 성력화가 가능하고 약일조하에서도 광선이 과일에 충분히 비치므로 착색이 균일하며 또 고온기에도 과피는 황변이 적어 특히 착색이 선명하게 된다.    나. 재배형 : 촉성, 반촉성, 무가온 및 비가림, 하우스 억제   다. 유의사항  ○ 이 품종에는 유전적으로 이형주가 10%정도 발생한다. 이형주는 묘(파종후 30~40일)시기에 완전하게 구분하는 것이 가능하므로 이 시기에 철저히 제거를 한다.   10. 첼시미니(사카타코리아)  가. 특성  ○ TMV(Tm-2a 헤테로), 위조병(R-1, 2), 선충, 반점병, 잎곰팡이병에 저항성이고 반신위조병에도 내병성인 조생조이다.  ○ 엽은 중엽으로 흑엽이며 절간은 약간 촘촘하며 초세가 강하지만 이상경 발생이 적은 고성종으로 화수는 15~20화 정도이며 착과성이 극히 양호한 다수성 품종이다.  ○ 과실은 20~30g 정도의 원형이고 적색이며 과균일도가 높다. 과육이 두텁고 완숙해도 육질이 붕괴되지 않아 시장유통저장성이 좋고 열과에도 강하다.    나. 재배형 : 하우스 억제, 월동 장기, 무가온 및 비가림, 노지   다. 유의사항  ○ 정식은 제1화방 3~4과 착과한 노화묘를 정식하고 좀 가는 듯한 수형 만들기를 한다.  ○ 동계재배에서는 좀 높은 듯한 온도관리를 하여 착색을 촉진시키고 열과를 줄이도록 한다.  11. 오렌지캐롤  가. 특성  ○ TMV(Tm-2a 헤테로), 위조병(R-1, 2), 반점병에 저항성이고, J-3(근부위조병)에도 강한 오렌지색의 극조생 방울토마토이다.  ○ 엽은 암록색의 소엽이고 절간은 약간 신장하지만 균형이 쉽게 잡히고 저온에도 강하다. 화방은 하단부터 겹화방이 잘되는 다화성으로 착과성이 우수하다.  ○ 과실은 10~15g 정도의 원형이고 과색은 선명한 오렌지색으로 열과에 강하다.  ○ 당도는 9~10도로 감미가 강하고 독특한 풍미를 가지고 있어 식미가 매우 좋다. 또 β-카로틴이 보통의 붉은 품종에 비해 5배이상 함유하고 있어 영양적으로도 우수하다. 나. 재배형 : 월동 장기, 촉성, 반촉성</t>
+          <t>양질이면서 조숙 다수성인 맥주보리를 육성하고자 1982년 단간 중간모본인 사천6호/대중2조대맥1호/Deba Abed를 모본으로, 양질 맥주보리 도입품종을 교배하여 육성한 중간모본인 성성17호/레시비/관동만생골드를 부본으로 교배하여 계통육종법으로 조숙, 준단간인 820178D-BD-25D-2D-5D를 선발하여 1988년부터 3개년간 생산력검정시험을 실시하였다. 그 결과 우수성이 인정되어 계통명을 수원281호로 부여하고 1991년부터 3개년간 남부 5개소에서 지역적응시험을 실시하여 각종 특성과 수량성을 검토하고, 1993년에는 남부 3개지역 맥주보리 재배농가에서 농가실증시험을 실시하고 맥주보리 품질검정 결과 조숙이며 내재해성이 강하고 다수성일 뿐 아니라 그 품질이 우수하여 1993년 주요농작물 종자협의회에서 "진양보리"로 명명하여 장려품종으로 농가에 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>제주보리</t>
+          <t>삼도보리</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve">양질 내도복 다수성 신품종을 육성하고자 보안진-하가네무기를 모본으로 하고 삼흥-유난을 부본으로 하여 선발된 내도복성이 강한 중간모본인 77460-B-180을 모본으로 하고 내한성이 강하고 장간인 2조 수원212호를 부본으로 하여 1982년에 교배하여 1983년 수원에서 F1을 양성하였으며 1984년에는 광주에서 F2를 집단으로 육성하여 F3는 진주에서 F4는 수원에서 육성하여 82552-BK-19J-4-0 계통을 선발하였다. 선발한 이 계통을 1987년에 광주, 진주, 제주 3개 지역에서 생산력검정예비시험, 1988년에는 생산력검정본시험에 공시하여 생산성과 주요특성을 검정하였다. 그 결과 내한, 내도복, 준단간, 다수성 계통으로 유망하여 이 계통을 수원264호로 계통명을 부여하고 지역적응시험에 공시하였다. 1989년부터 3년간 지역적응시험을 수행한 결과 양질, 내도복 다수성인 계통으로 평가되었으며 특히 제주도에서 적응성이 높았다. 1992년 제주도에서 실시한 농가실증시험 결과에서도 그 특성이 우수하여 1992년 주요농작물 종자협의회에서 ‘제주보리’로 명명하였으며 제주도의 장려품종으로 결정되었다.  </t>
+          <t>1983년 일본에서 도입된 맥주보리 양질 품종 Hayagaze와 다수성인 수원212호를 교배한 계통에 단간 내도복성인 두산8호를 인공교배하여 육성한 품종이다. F1~F3 세대는 집단육종법으로, F4 세대 이후는 계통육종법에 의해 선발해 오던 중 YMB69-3B-5-3 계통이 우수하여 1988~1990년 3개년간 생산력검정 및 특성검정 시험을 실시한 결과 양질 내도복 다수성 계통으로 유망시 되었다. 따라서 이 계통을 밀양56호의 계통명을 부여하여 1991~1993년 3개년간에 걸친 지역적응시험과 1993년 농가실증 시험을 실시하여 양질 내도복 대립 다수성 계통임을 확인하였으며 1993년 농림수산부의 1993 주요농작물 종자협의회에서 이 품종의 우수성을 인정하고 새로운 맥주보리 장려품종으로 결정함과 동시에 ‘삼도보리’로 명명하여 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>진양보리</t>
+          <t>남향보리</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>양질이면서 조숙 다수성인 맥주보리를 육성하고자 1982년 단간 중간모본인 사천6호/대중2조대맥1호/Deba Abed를 모본으로, 양질 맥주보리 도입품종을 교배하여 육성한 중간모본인 성성17호/레시비/관동만생골드를 부본으로 교배하여 계통육종법으로 조숙, 준단간인 820178D-BD-25D-2D-5D를 선발하여 1988년부터 3개년간 생산력검정시험을 실시하였다. 그 결과 우수성이 인정되어 계통명을 수원281호로 부여하고 1991년부터 3개년간 남부 5개소에서 지역적응시험을 실시하여 각종 특성과 수량성을 검토하고, 1993년에는 남부 3개지역 맥주보리 재배농가에서 농가실증시험을 실시하고 맥주보리 품질검정 결과 조숙이며 내재해성이 강하고 다수성일 뿐 아니라 그 품질이 우수하여 1993년 주요농작물 종자협의회에서 "진양보리"로 명명하여 장려품종으로 농가에 보급하게 되었다</t>
+          <t>남향보리는 다수성이며 조숙이고 중단간인 맥주보리 두산22호를 부본으로, 숙기는 약간 늦으나 단간이고 양질다수성인 맥주보리 두산 12호를 모본으로 하여 1986년에 인공교배한 후 계통육종법에 의해 862566-B-24K-2K-0 계통을 선발하여 생산력검정시험을 하였다. 그 결과 제반특성이 우수하여 계통명을 수원305호로 부여하고 3개년간 지역적응시험을 남부 맥주보리 재배지대 5개소에서 수행하였으며 1995년도에는 농가실증시험을 수행하였다. 그 결과 숙기가 빠르고 중단간으로 내도복성이 강할 뿐만 아니라 기계수확에도 적합한 양질 맥주보리로서 1995년에 장려품종으로 지정하여 보급하기로 하였다.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>삼도보리</t>
+          <t>단원보리</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>1983년 일본에서 도입된 맥주보리 양질 품종 Hayagaze와 다수성인 수원212호를 교배한 계통에 단간 내도복성인 두산8호를 인공교배하여 육성한 품종이다. F1~F3 세대는 집단육종법으로, F4 세대 이후는 계통육종법에 의해 선발해 오던 중 YMB69-3B-5-3 계통이 우수하여 1988~1990년 3개년간 생산력검정 및 특성검정 시험을 실시한 결과 양질 내도복 다수성 계통으로 유망시 되었다. 따라서 이 계통을 밀양56호의 계통명을 부여하여 1991~1993년 3개년간에 걸친 지역적응시험과 1993년 농가실증 시험을 실시하여 양질 내도복 대립 다수성 계통임을 확인하였으며 1993년 농림수산부의 1993 주요농작물 종자협의회에서 이 품종의 우수성을 인정하고 새로운 맥주보리 장려품종으로 결정함과 동시에 ‘삼도보리’로 명명하여 보급하게 되었다.</t>
+          <t>단원보리는 1989년 조숙 내도복 다수성 맥주보리 품종을 육성하기 위하여 진주에서 수집한 P9를 모본으로, 조숙성이며 양질인 밀양42호를 부본으로 인공교배하여 잡종 3세대까지 집단육종법으로 양성하였고, 잡종4세대부터는 계통육성법에 의해 우량계통을 선발 고정해오던 중 1993년에 YMB988-3B-10를 선발하였다. 1994~1995년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시 되어 밀양83호의 계통명을 부여한 후 1996~1998년까지 3개년간 전국 4개지역에서 실시한 지역적응시험을 실시한 결과 내도복 양질 다수성 품종으로 그 우수성이 인정되어 새로운 장려품종 "단원보리"로 명명하여 맥주보리 재배지대인 경남, 전남, 제주지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>남향보리</t>
+          <t>일진보리</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>남향보리는 다수성이며 조숙이고 중단간인 맥주보리 두산22호를 부본으로, 숙기는 약간 늦으나 단간이고 양질다수성인 맥주보리 두산 12호를 모본으로 하여 1986년에 인공교배한 후 계통육종법에 의해 862566-B-24K-2K-0 계통을 선발하여 생산력검정시험을 하였다. 그 결과 제반특성이 우수하여 계통명을 수원305호로 부여하고 3개년간 지역적응시험을 남부 맥주보리 재배지대 5개소에서 수행하였으며 1995년도에는 농가실증시험을 수행하였다. 그 결과 숙기가 빠르고 중단간으로 내도복성이 강할 뿐만 아니라 기계수확에도 적합한 양질 맥주보리로서 1995년에 장려품종으로 지정하여 보급하기로 하였다.</t>
+          <t>일진보리는 1988년 맥주보리 양질 품종인 두산22호를 모본으로, 양질 저단백인 Kantonijo 20을 부본으로 인공교배하여 잡종 3세대까지 집단육종법으로 양성하였고, 잡종 4세대부터는 계통육성법에 의해 우량계통을 선발 고정해 오던 중 1993년에 YMB747-3B-14-3를 선발하였다. 1994~1996년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시 되어 밀양89호의 계통명을 부여한 후 1997~1999년까지 3개년간 전국 4개 지역에서 실시한 지역적응시험을 실시한 결과 내도복 양질 다수성 품종으로 그우수성이 인정되어 새로운 장려품종 ‘일진보리’로 명명하여 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>단원보리</t>
+          <t>신호보리</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>단원보리는 1989년 조숙 내도복 다수성 맥주보리 품종을 육성하기 위하여 진주에서 수집한 P9를 모본으로, 조숙성이며 양질인 밀양42호를 부본으로 인공교배하여 잡종 3세대까지 집단육종법으로 양성하였고, 잡종4세대부터는 계통육성법에 의해 우량계통을 선발 고정해오던 중 1993년에 YMB988-3B-10를 선발하였다. 1994~1995년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시 되어 밀양83호의 계통명을 부여한 후 1996~1998년까지 3개년간 전국 4개지역에서 실시한 지역적응시험을 실시한 결과 내도복 양질 다수성 품종으로 그 우수성이 인정되어 새로운 장려품종 "단원보리"로 명명하여 맥주보리 재배지대인 경남, 전남, 제주지역에 보급하게 되었다.</t>
+          <t>최근 우리나라 맥주보리 재배지역에서 심각한 피해를 입히고 있는 호위축병에 저항성이면서 조숙, 양질인 맥주보리 품종을 육성하기 위해서 작물과학원에서는 목석항3호에서 유래한 호위축병 저항성 유전자 rym5을 가지고 있으며 양질인 맥주보리 품종인 미사토골덴을 모본으로, 대립이며 장간인 Azuma Golden을 부본으로 1988년도에 인공교배하여 계통육종법을 이용하여 882092G-B-11K-5J계통을 선발하였다. 1993~1996년간 생산력검정시험에서 조숙, 호위축병 저항성 및 대립성인 계통을 선발하여 수원344호로 계통명을 부여하였다. 남부 맥주보리 재배지대에서 1997년부터 3개년간 지역적응성을 검정한 결과 조숙, 호위축병 저항성 및 대립일 뿐만 아니라 수량성이 높아 1999년도에 직무육성품종선정위원회에서 맥주보리 신규 품종으로 결정하고 신호보리로 명명하고 농가에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>일진보리</t>
+          <t>대영보리</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>일진보리는 1988년 맥주보리 양질 품종인 두산22호를 모본으로, 양질 저단백인 Kantonijo 20을 부본으로 인공교배하여 잡종 3세대까지 집단육종법으로 양성하였고, 잡종 4세대부터는 계통육성법에 의해 우량계통을 선발 고정해 오던 중 1993년에 YMB747-3B-14-3를 선발하였다. 1994~1996년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시 되어 밀양89호의 계통명을 부여한 후 1997~1999년까지 3개년간 전국 4개 지역에서 실시한 지역적응시험을 실시한 결과 내도복 양질 다수성 품종으로 그우수성이 인정되어 새로운 장려품종 ‘일진보리’로 명명하여 보급하게 되었다</t>
+          <t>1990년 맥주보리 양질 품종인 밀양45호를 모본으로, 양질 저단백인 Azmagolden를 부본으로 인공교배하여 잡종3세대까지 집단육종법으로 양성하였고, 잡종4세대부터는 계통육종법에 의해 우량계통을 선발 고정해 오던 중 1995년에 YMB1103-3B-14-3를 선발하였다. 1996~1997년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시되어 밀양96호의 계통명으로 1998~2000년까지 3년간 전국 4개소에서 실시한 지역적응시험에서 양질, 다수성 품종으로 그 우수성이 인정되어 새로운 장려품종 ‘대영보리’로 명명하고 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>신호보리</t>
+          <t>선우보리</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>최근 우리나라 맥주보리 재배지역에서 심각한 피해를 입히고 있는 호위축병에 저항성이면서 조숙, 양질인 맥주보리 품종을 육성하기 위해서 작물과학원에서는 목석항3호에서 유래한 호위축병 저항성 유전자 rym5을 가지고 있으며 양질인 맥주보리 품종인 미사토골덴을 모본으로, 대립이며 장간인 Azuma Golden을 부본으로 1988년도에 인공교배하여 계통육종법을 이용하여 882092G-B-11K-5J계통을 선발하였다. 1993~1996년간 생산력검정시험에서 조숙, 호위축병 저항성 및 대립성인 계통을 선발하여 수원344호로 계통명을 부여하였다. 남부 맥주보리 재배지대에서 1997년부터 3개년간 지역적응성을 검정한 결과 조숙, 호위축병 저항성 및 대립일 뿐만 아니라 수량성이 높아 1999년도에 직무육성품종선정위원회에서 맥주보리 신규 품종으로 결정하고 신호보리로 명명하고 농가에 보급하게 되었다.</t>
+          <t>내재해 총체 다수성 품종을 육성하기 위하여 1989년에 수수가 많고 엽신 및 줄기비율이 높은 P71523을 모본으로, 도복에 강한 겉보리 계통 수원234호를 부본으로 하여 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년부터 1994년까지 F3, F4, F5를 거치면서 1995년에 우량시되는 SB89028-B-30-4-3 계통을 선발하였다. 1995년에 예비선발시험을 거쳐 1996년부터 1999년까지 4개년간 생산력검정 예비시험과 본시험을 실시한 결과 총체 사료용 보리로서 수량성이 높고 줄기가 튼튼한 우수 계통으로 판명되어 수원366호로 계통명을 부여하고 2000년부터 3개년간 수원, 아산, 대전 등 3개소에서 지역적응시험을 실시하였다. 그 결과 내한성이 강하여 강원도 산간?고냉지를 제외한 전국에 적응성을 갖는 광지역성이며 호위축병, 탈립 및 도복에 강한 계통으로 입증되어 2002년 9월 농작물 직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ’선우보리‘로 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>대영보리</t>
+          <t>영양보리</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>1990년 맥주보리 양질 품종인 밀양45호를 모본으로, 양질 저단백인 Azmagolden를 부본으로 인공교배하여 잡종3세대까지 집단육종법으로 양성하였고, 잡종4세대부터는 계통육종법에 의해 우량계통을 선발 고정해 오던 중 1995년에 YMB1103-3B-14-3를 선발하였다. 1996~1997년 생산력검정시험을 실시하였던 바 양질 내도복 다수성 계통으로 유망시되어 밀양96호의 계통명으로 1998~2000년까지 3년간 전국 4개소에서 실시한 지역적응시험에서 양질, 다수성 품종으로 그 우수성이 인정되어 새로운 장려품종 ‘대영보리’로 명명하고 보급하게 되었다.</t>
+          <t xml:space="preserve">내습성이 강하고 총체생산성이 높으며 사료 영양가가 높은 보리품종을 개발하기 위하여 키가 크고 내습성이 강한 부농을 모본으로 조숙 계통인 밀양55호를 부본으로 하여 1992년도 영남농업연구소에서 인공교배하였다. 1993년 F1을 양성한 후 1994년부터 1995년까지 집단으로 F2, F3를 전개하였고 1996년부터 1997년까지 F4, F5 계통을 전개하여 우량시 되는 YB3882-B-B-B-17-1 계통을 선발하였다. 1998년부터 2개년간 생산력검정 예비시험과 본시험을 실시한 결과 직립이며 총체 사료용 보리로서 수량성이 높고 내습성이 강한 우수 계통으로 판명되어 밀양111호로 계통명을 부여하고 2000년부터 3개년간 수원, 아산, 대전 등 3개소에서 지역적응시험을 실시하였다. 그 결과, 수량성이 높고 습해 및 호위축병에 강한 계통으로 입증되어 2002년 9월 농작물 직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘영양보리’로 명명하였다.  </t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>선우보리</t>
+          <t>보리(태강)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>내재해 총체 다수성 품종을 육성하기 위하여 1989년에 수수가 많고 엽신 및 줄기비율이 높은 P71523을 모본으로, 도복에 강한 겉보리 계통 수원234호를 부본으로 하여 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년부터 1994년까지 F3, F4, F5를 거치면서 1995년에 우량시되는 SB89028-B-30-4-3 계통을 선발하였다. 1995년에 예비선발시험을 거쳐 1996년부터 1999년까지 4개년간 생산력검정 예비시험과 본시험을 실시한 결과 총체 사료용 보리로서 수량성이 높고 줄기가 튼튼한 우수 계통으로 판명되어 수원366호로 계통명을 부여하고 2000년부터 3개년간 수원, 아산, 대전 등 3개소에서 지역적응시험을 실시하였다. 그 결과 내한성이 강하여 강원도 산간?고냉지를 제외한 전국에 적응성을 갖는 광지역성이며 호위축병, 탈립 및 도복에 강한 계통으로 입증되어 2002년 9월 농작물 직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ’선우보리‘로 명명하였다.</t>
+          <t>태강은 작물과학원에서 내재해 다수성 품종을 육성하기 위하여 1992년에 호위축병이 강하고 내재해성인 수원287호를 모본으로, 올보리를 부본으로 인공교배하였다. 1993년에 F 1 을 양성한 후 이듬해 집단으로 F 2 를 전개하였고, 1995년 이후에는 집단육종법과 계통육종법을 병행하면서 세대를 진전시켰다. 1998년에는 F 6 세대에서 공시하여 우량시 되는 SB921024-B-B-B-3-B 계통을 선발하여 2개년간 생산력검정시험을 실시한 결과, 수량성이 높고 도복이 강한 우수 계통으로 판명되어 수원373호로 계통명을 부여하고 2001년부터 3개년간 지역적응시험을 실시하였다. 그 결과, 광지역성으로서 수량성이 높고 도복 등 내재해성에 강한 계통임이 입증되어 2003년 10월 농작물직무육성 신품종선정심의회에서 국가품종목록 등재품종으로 선정하고 품종명을 태강으로 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>영양보리</t>
+          <t>호품보리</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t xml:space="preserve">내습성이 강하고 총체생산성이 높으며 사료 영양가가 높은 보리품종을 개발하기 위하여 키가 크고 내습성이 강한 부농을 모본으로 조숙 계통인 밀양55호를 부본으로 하여 1992년도 영남농업연구소에서 인공교배하였다. 1993년 F1을 양성한 후 1994년부터 1995년까지 집단으로 F2, F3를 전개하였고 1996년부터 1997년까지 F4, F5 계통을 전개하여 우량시 되는 YB3882-B-B-B-17-1 계통을 선발하였다. 1998년부터 2개년간 생산력검정 예비시험과 본시험을 실시한 결과 직립이며 총체 사료용 보리로서 수량성이 높고 내습성이 강한 우수 계통으로 판명되어 밀양111호로 계통명을 부여하고 2000년부터 3개년간 수원, 아산, 대전 등 3개소에서 지역적응시험을 실시하였다. 그 결과, 수량성이 높고 습해 및 호위축병에 강한 계통으로 입증되어 2002년 9월 농작물 직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘영양보리’로 명명하였다.  </t>
+          <t>호품은 1994년 영남농업연구소에서 양질인 사천6호를 모본으로 하고, 바이러스병 저항성인 미사토골덴을 부본으로 인공교배하여 집단육종 및 계통육종법으로 세대를 진전시키면서 내바이러스성 및 재배적 특성이 우량한 YMB1785-B-B-B 14-2-1 계통을 선발하여 생산력검정시험을 실시한 결과 그 우수성이 인정되어 밀양114호의 계통명을 부여하고 지역적응시험을 실시한 바 호위축병에 저항성이면 서 고품질 다수성이 인정되어 2003년 12월 농작물직무육성 신품종선정위원회에서 국가품종목록 등재품종으로 선정됨과 동시에 품종명을 호품이라 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>보리(태강)</t>
+          <t>보리(사천6호)</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>태강은 작물과학원에서 내재해 다수성 품종을 육성하기 위하여 1992년에 호위축병이 강하고 내재해성인 수원287호를 모본으로, 올보리를 부본으로 인공교배하였다. 1993년에 F 1 을 양성한 후 이듬해 집단으로 F 2 를 전개하였고, 1995년 이후에는 집단육종법과 계통육종법을 병행하면서 세대를 진전시켰다. 1998년에는 F 6 세대에서 공시하여 우량시 되는 SB921024-B-B-B-3-B 계통을 선발하여 2개년간 생산력검정시험을 실시한 결과, 수량성이 높고 도복이 강한 우수 계통으로 판명되어 수원373호로 계통명을 부여하고 2001년부터 3개년간 지역적응시험을 실시하였다. 그 결과, 광지역성으로서 수량성이 높고 도복 등 내재해성에 강한 계통임이 입증되어 2003년 10월 농작물직무육성 신품종선정심의회에서 국가품종목록 등재품종으로 선정하고 품종명을 태강으로 명명하였다.</t>
+          <t>조숙, 양질 다수성 품종을 육성하기 위하여 1970년 하루핀2조를 모본으로 하고 북대2호를 부본으로 하여 인공교배한 후 계통육종법으로 1974년 F4에서 선발 고정한 계통으로 1975~1976년 F5, F6에서 특성 및 생산력검정시험을 실시하고 1977년 F7에서 생산력검정본시험을 실시한 결과 성적이 양호하여 사천6호로 계통명을 부여하고 1978~1979년 F8, F9에서 지역적응시험을 전남, 경남, 제주 6개 지역에서 수행하였다. 그 결과 전지역에서 우수한 성적을 나타내어 1979년 종자심의회에서 장려품종으로 결정하여 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>호품보리</t>
+          <t>보리(두산8호)</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>호품은 1994년 영남농업연구소에서 양질인 사천6호를 모본으로 하고, 바이러스병 저항성인 미사토골덴을 부본으로 인공교배하여 집단육종 및 계통육종법으로 세대를 진전시키면서 내바이러스성 및 재배적 특성이 우량한 YMB1785-B-B-B 14-2-1 계통을 선발하여 생산력검정시험을 실시한 결과 그 우수성이 인정되어 밀양114호의 계통명을 부여하고 지역적응시험을 실시한 바 호위축병에 저항성이면 서 고품질 다수성이 인정되어 2003년 12월 농작물직무육성 신품종선정위원회에서 국가품종목록 등재품종으로 선정됨과 동시에 품종명을 호품이라 명명하였다.</t>
+          <t>내도복 양질 다수성 신품종을 육성하고자 대중2조대맥1호와 Deba Abed를 1972년에 인공교배한 이래 계통육종법으로 선발 고정한 것을 1977년 F5에서 생산력검정예비시험을 실시하였고 F6에서 생산력검정본시험을 실시한 결과 그 우수성이 인정되어 계통명을 두산8호로 명명하였다. 1979~1981년까지 맥주보리 지역적응시험을 전남, 경남, 제주등 6개지역에서 실시하는 한편 1980~1981년 전남, 경남, 제주 등 6개 지역에서 농가실증시험을 실시한 결과 전 지역에서 우수한 성적을 나타내어 1981년 주요농작물 종자심의회를 거쳐 전남, 경남, 제주의 장려품종으로 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>보리(사천6호)</t>
+          <t>보리(두산29호)</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>조숙, 양질 다수성 품종을 육성하기 위하여 1970년 하루핀2조를 모본으로 하고 북대2호를 부본으로 하여 인공교배한 후 계통육종법으로 1974년 F4에서 선발 고정한 계통으로 1975~1976년 F5, F6에서 특성 및 생산력검정시험을 실시하고 1977년 F7에서 생산력검정본시험을 실시한 결과 성적이 양호하여 사천6호로 계통명을 부여하고 1978~1979년 F8, F9에서 지역적응시험을 전남, 경남, 제주 6개 지역에서 수행하였다. 그 결과 전지역에서 우수한 성적을 나타내어 1979년 종자심의회에서 장려품종으로 결정하여 보급하게 되었다</t>
+          <t>두산농산(주)에서 조숙, 양질 다수성인 맥주보리 신품종을 육성하기 위하여 1979년 사천1호(KM13×Frilbecks)를 모본으로, 일본 육성계통인 축계1537을 부본으로 교배하여 계통육성법으로 육성하였다. 본 품종은 1983~1984년 F4~F5세대에서 생산력검정시험을 실시한 결과 그 우수성이 인정되어 농촌진흥청 주관하에 지역적응시험에 공시하였다. 1985~1987년까지 전남, 경남, 제주도 6개 지역에서 지역적응시험을 실시하고 1987~1988년 전남, 경남 2개소에서 농가실증시험을 실시한 결과, 양질, 조숙, 다수성 품종으로 인정되어 1988년 농수산부 주요농작물 종자심의회에서 장려품종으로 결정하고 두산29호로 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>보리(두산8호)</t>
+          <t>진광보리</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>내도복 양질 다수성 신품종을 육성하고자 대중2조대맥1호와 Deba Abed를 1972년에 인공교배한 이래 계통육종법으로 선발 고정한 것을 1977년 F5에서 생산력검정예비시험을 실시하였고 F6에서 생산력검정본시험을 실시한 결과 그 우수성이 인정되어 계통명을 두산8호로 명명하였다. 1979~1981년까지 맥주보리 지역적응시험을 전남, 경남, 제주등 6개지역에서 실시하는 한편 1980~1981년 전남, 경남, 제주 등 6개 지역에서 농가실증시험을 실시한 결과 전 지역에서 우수한 성적을 나타내어 1981년 주요농작물 종자심의회를 거쳐 전남, 경남, 제주의 장려품종으로 보급하게 되었다</t>
+          <t>조숙 양질 내도복 및 다수성인 맥주보리를 육성하고자 1982년에 단간 양질 다수성인 두산8호와 양질 다수성인 사천6호를 교배하여 온실 및 포장에서 3회의 세대촉진을 실시한 후 F5세대를 진주에 공시하여 821066-GB-SB-GB-385J를 선발하였으며, 1985년부터 2개년간 광주, 진주, 제주 3개지역에서 생산력검정시험을 실시하였다. 그 결과 우수성이 인정되어 계통명을 ‘수원246호’로 부여하고, 1987년부터 3개년간 남부 5개지역에서 지역적응시험을 실시하여 수량성을 검토하고, 1989년 전남 순천의 맥주보리 재배농가에서 농가실증시험을 실시하였다. 그 결과 농업 특성 및 품질이 우수하여 1989년도 주요농작물 종자심의회결과 장려품종으로 결정되었으며, 진주와 광주에서 공동으로 육성 선발하고 남부 지역적응품종임을 나타내기 위하여 ‘진광보리’로 명명하여 전남, 경남, 제주의 장려품종으로 농가에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>보리(두산29호)</t>
+          <t>춘추쌀보리</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>두산농산(주)에서 조숙, 양질 다수성인 맥주보리 신품종을 육성하기 위하여 1979년 사천1호(KM13×Frilbecks)를 모본으로, 일본 육성계통인 축계1537을 부본으로 교배하여 계통육성법으로 육성하였다. 본 품종은 1983~1984년 F4~F5세대에서 생산력검정시험을 실시한 결과 그 우수성이 인정되어 농촌진흥청 주관하에 지역적응시험에 공시하였다. 1985~1987년까지 전남, 경남, 제주도 6개 지역에서 지역적응시험을 실시하고 1987~1988년 전남, 경남 2개소에서 농가실증시험을 실시한 결과, 양질, 조숙, 다수성 품종으로 인정되어 1988년 농수산부 주요농작물 종자심의회에서 장려품종으로 결정하고 두산29호로 명명하였다.</t>
+          <t>용도별 특성이 다양하고 조숙 양질이면서 추파성이 낮은 새로운 쌀보리 품종육성이 절실히 요구되고 있던 중 호남농업연구소 맥류연구진은 추파성이 낮으면서 조숙 내재해 양질 다수성인 쌀보리 신품종을 육성할 목적으로 1983년에 조숙 다수성 품종인 오월보리에 초형이 양호하며 내재해성 양질 계통인 이리7호를 인공교배하여 잡종 2세대까지는 집단육종법, 그 이후 세대는 계통육종법에 따라 계통선발을 실시하였으며, 1989년에 잡종 6세대에서 HB83290-B-18-2-5-1을 선발하여 1990~1992년까지 생산력검정시험에 공시 하였던 바 조숙 내재해 양질 다수성으로 인정되어 ‘이리31호’로 계통명을 부여하고 1993년부터 3개년간 전국 6개소에서 지역적응시험 및 1995년에 농가실증시험을 실시한 결과 그 우수성이 인정되어 주요농작물 종자협의회에서 새로운 장려품종으로 결정되어 ‘춘추쌀보리’로 명명, 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>진광보리</t>
+          <t>강호쌀보리</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>조숙 양질 내도복 및 다수성인 맥주보리를 육성하고자 1982년에 단간 양질 다수성인 두산8호와 양질 다수성인 사천6호를 교배하여 온실 및 포장에서 3회의 세대촉진을 실시한 후 F5세대를 진주에 공시하여 821066-GB-SB-GB-385J를 선발하였으며, 1985년부터 2개년간 광주, 진주, 제주 3개지역에서 생산력검정시험을 실시하였다. 그 결과 우수성이 인정되어 계통명을 ‘수원246호’로 부여하고, 1987년부터 3개년간 남부 5개지역에서 지역적응시험을 실시하여 수량성을 검토하고, 1989년 전남 순천의 맥주보리 재배농가에서 농가실증시험을 실시하였다. 그 결과 농업 특성 및 품질이 우수하여 1989년도 주요농작물 종자심의회결과 장려품종으로 결정되었으며, 진주와 광주에서 공동으로 육성 선발하고 남부 지역적응품종임을 나타내기 위하여 ‘진광보리’로 명명하여 전남, 경남, 제주의 장려품종으로 농가에 보급하게 되었다.</t>
+          <t>1970년대부터 발생되고 있는 보리호위축병(BaYMV) 상습발병포장을 잘 보존유지하면서 보리호위축병 방제의 유일한 방법인 저항성 쌀보리 신품종 육성을 위해 일본 등 외국으로부터 새로운 저항성 품종 도입은 물론 병해 저항성검정 및 조기진단법 등의 연구체계확립에 심혈을 기울여 조숙 양질 내재해 다수성 신품종을 육성할 목적으로 1989년에 내재해성이 강하고 양질 다수성인 HB80016-B-49계통을 모본, 다수성이면서 광지역성인 새쌀보리를 부본으로 인공교배를 하여 잡종 2세대까지 집단육종법, 잡종 3 세대 이후는 계통육종법에 따라 계통선발을 하여 1993년 2개년간 생산력검정시험을 실시하여 조숙양질, 보리호위축병 저항성, 내도복, 내습성, 내한성에 강하여 이리 36호로 계통명을 부여하여 1995년부터 3년간 전국 7개소에서 지역적응시험을 실시한 결과 우수성이 인정되어 주요농작물 종자협의회에서 새로운 장려품종으로 결정됨과 동시에 ‘강호쌀보리‘로 명명하여 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>춘추쌀보리</t>
+          <t>대호쌀보리</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>용도별 특성이 다양하고 조숙 양질이면서 추파성이 낮은 새로운 쌀보리 품종육성이 절실히 요구되고 있던 중 호남농업연구소 맥류연구진은 추파성이 낮으면서 조숙 내재해 양질 다수성인 쌀보리 신품종을 육성할 목적으로 1983년에 조숙 다수성 품종인 오월보리에 초형이 양호하며 내재해성 양질 계통인 이리7호를 인공교배하여 잡종 2세대까지는 집단육종법, 그 이후 세대는 계통육종법에 따라 계통선발을 실시하였으며, 1989년에 잡종 6세대에서 HB83290-B-18-2-5-1을 선발하여 1990~1992년까지 생산력검정시험에 공시 하였던 바 조숙 내재해 양질 다수성으로 인정되어 ‘이리31호’로 계통명을 부여하고 1993년부터 3개년간 전국 6개소에서 지역적응시험 및 1995년에 농가실증시험을 실시한 결과 그 우수성이 인정되어 주요농작물 종자협의회에서 새로운 장려품종으로 결정되어 ‘춘추쌀보리’로 명명, 보급하게 되었다.</t>
+          <t>조숙이면서 보리호위축병에 강하고 양질 대립 다수성인 쌀보리 신품종을 육성할 목적으로 1988년에 내재해성이 강하고 양질 다수성인 나가데하다가를 모본, 단간, 다수성인 시고꾸42호를 부본으로 인공교배를 하여 잡종 2세대까지 집단 육종법, 잡종 3세대 이후는 계통육종법에 따라 기대형질에 부응하는 HB88154-B-11-1-1 계통을 선발하여 1994년부터 2개년간 생산력검정시험을 실시한 결과 대립, 보리호위축병 저항성, 내도복성, 내습성, 내한성에 강하여 ‘이리 40호’로 계통명을 부여하고 1996년부터 3년간 전국 9개소에서 지역적응시험을 실시하여 우수성이 인정되었다. 1998 농작물 직무육성 신품종 선정 협의회에서 새로운 장려품종으로 결정됨과 동시에 ‘대호쌀보리’로 명명하여 충남 이남의 쌀보리 재배지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>강호쌀보리</t>
+          <t>진미찰보리</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>1970년대부터 발생되고 있는 보리호위축병(BaYMV) 상습발병포장을 잘 보존유지하면서 보리호위축병 방제의 유일한 방법인 저항성 쌀보리 신품종 육성을 위해 일본 등 외국으로부터 새로운 저항성 품종 도입은 물론 병해 저항성검정 및 조기진단법 등의 연구체계확립에 심혈을 기울여 조숙 양질 내재해 다수성 신품종을 육성할 목적으로 1989년에 내재해성이 강하고 양질 다수성인 HB80016-B-49계통을 모본, 다수성이면서 광지역성인 새쌀보리를 부본으로 인공교배를 하여 잡종 2세대까지 집단육종법, 잡종 3 세대 이후는 계통육종법에 따라 계통선발을 하여 1993년 2개년간 생산력검정시험을 실시하여 조숙양질, 보리호위축병 저항성, 내도복, 내습성, 내한성에 강하여 이리 36호로 계통명을 부여하여 1995년부터 3년간 전국 7개소에서 지역적응시험을 실시한 결과 우수성이 인정되어 주요농작물 종자협의회에서 새로운 장려품종으로 결정됨과 동시에 ‘강호쌀보리‘로 명명하여 보급하게 되었다.</t>
+          <t>추위와 도복에 강하고 밥맛이 좋은 양질의 쌀보리 품종을 육성하기 위해 추위에 강한 수원254호와 찰성이면서 단간인 F5(마산과맥/강보리*6)/늘쌀보리를 교배하여 찰성, 내도복 계통인 SB891042-B-3J-5J를 선발, 1994~1995년 생산력검정시험을 수행한 결과 우수성이 인정되어 수원332호로 명명하고 1996년부터 3개년간 지역적응시험을 실시하였다. 그 결과 도복과 내한성이 강하고 찰성으로 입백도와 정맥률이 높으며 취반특성이 우수하여 1998년 ‘진미찰’로 국가품종목록에 등재하고, 1월최저기온 평균 -8℃ 이상인 지역에 보급하도록 하였다</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>대호쌀보리</t>
+          <t>재강쌀보리</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>조숙이면서 보리호위축병에 강하고 양질 대립 다수성인 쌀보리 신품종을 육성할 목적으로 1988년에 내재해성이 강하고 양질 다수성인 나가데하다가를 모본, 단간, 다수성인 시고꾸42호를 부본으로 인공교배를 하여 잡종 2세대까지 집단 육종법, 잡종 3세대 이후는 계통육종법에 따라 기대형질에 부응하는 HB88154-B-11-1-1 계통을 선발하여 1994년부터 2개년간 생산력검정시험을 실시한 결과 대립, 보리호위축병 저항성, 내도복성, 내습성, 내한성에 강하여 ‘이리 40호’로 계통명을 부여하고 1996년부터 3년간 전국 9개소에서 지역적응시험을 실시하여 우수성이 인정되었다. 1998 농작물 직무육성 신품종 선정 협의회에서 새로운 장려품종으로 결정됨과 동시에 ‘대호쌀보리’로 명명하여 충남 이남의 쌀보리 재배지역에 보급하게 되었다.</t>
+          <t>1988년에 조숙 양질 내재해 다수성 신품종을 육성할 목적으로 내재해성에 강하고 양질 다수성인 나가데하다가를 모본, 단간 내도복성 다수성인 시고꾸42호를 부본으로 인공교배하여 잡종 2세대까지 집단육종법, 잡종 3세대이후는 계통육종법에 따라 기대형질에 부응하는 HB88154-B-55-2-1-2 계통을 선발하여 1995년부터 2개년간 생산력검정을 실시한 결과 보리호위축병 저항성, 내도복성, 내수발아성, 대립, 양질 다수성으로 ‘익산43호’로 계통명을 부여하고 1997년부터 3개년간 전국 4개소에서 지역적응시험을 실시하였고 우수성이 인정되어 1999년 농작물 직무육성 신품종선정혐의회에서 새로운 장려품종으로 결정됨과 동시에 ‘재강쌀보리’로 명명하여 이모작을 요하는 쌀보리 답리작 재배지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>진미찰보리</t>
+          <t>동호쌀보리</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>추위와 도복에 강하고 밥맛이 좋은 양질의 쌀보리 품종을 육성하기 위해 추위에 강한 수원254호와 찰성이면서 단간인 F5(마산과맥/강보리*6)/늘쌀보리를 교배하여 찰성, 내도복 계통인 SB891042-B-3J-5J를 선발, 1994~1995년 생산력검정시험을 수행한 결과 우수성이 인정되어 수원332호로 명명하고 1996년부터 3개년간 지역적응시험을 실시하였다. 그 결과 도복과 내한성이 강하고 찰성으로 입백도와 정맥률이 높으며 취반특성이 우수하여 1998년 ‘진미찰’로 국가품종목록에 등재하고, 1월최저기온 평균 -8℃ 이상인 지역에 보급하도록 하였다</t>
+          <t>동호쌀보리는 내재해 조숙 양질 다수성 쌀보리 신품종을 육성할 목적으로 내한성에 강하면서 보리호위축병(BaYMV)에 저항성인 내한쌀보리를 모본, 양질이면서 내한성 및 내재해성이 강한 마산과맥/강보리*7을 부본으로 하여 1988년에 인공교배하여 잡종 2세대까지는 집단 육종법, F3세대 이후는 계통육종법을 이용하여 HB88092-B-29-4-3-5-3 계통을 선발하였다. 1996년부터 2개년간 생산력검정 시험에 공시한 바 내한성 및 보리호위축병, 수발아에 강하면서 내습성은 중정도이며 보리쌀의 백도는 좋고 취반특성이 양호한 다수성 계통으로 인정되어 ‘익산47호’로 계통명을 부여하였다. 1998년부터 3개년간 전국 전작 1개소 답리작 4개소에서 지역저응시험을 실시한 결과 2000년 12월에 농작물 직무육성 신품종 선정 위원회에서 새로운 품종으로 결정됨과 동시에 ‘동호쌀보리’로 명명하여 쌀보리 재배지 및 보리호위축병 상습 발병지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>재강쌀보리</t>
+          <t>재안찰쌀보리</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>1988년에 조숙 양질 내재해 다수성 신품종을 육성할 목적으로 내재해성에 강하고 양질 다수성인 나가데하다가를 모본, 단간 내도복성 다수성인 시고꾸42호를 부본으로 인공교배하여 잡종 2세대까지 집단육종법, 잡종 3세대이후는 계통육종법에 따라 기대형질에 부응하는 HB88154-B-55-2-1-2 계통을 선발하여 1995년부터 2개년간 생산력검정을 실시한 결과 보리호위축병 저항성, 내도복성, 내수발아성, 대립, 양질 다수성으로 ‘익산43호’로 계통명을 부여하고 1997년부터 3개년간 전국 4개소에서 지역적응시험을 실시하였고 우수성이 인정되어 1999년 농작물 직무육성 신품종선정혐의회에서 새로운 장려품종으로 결정됨과 동시에 ‘재강쌀보리’로 명명하여 이모작을 요하는 쌀보리 답리작 재배지역에 보급하게 되었다.</t>
+          <t>내재해 양질 다수성 품종을 육성하기 위하여 1989년에 호위축병에 강한 쌀보리 계통 ‘수원361호’를 모본으로 ‘SB79012-B-22-B-13/백과1호’ 조합의 F2 개체중 직립성이며 줄기가 강한 개체를 부본으로 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년과 1993년에는 수원에서 F3, F4를, 1994년에는 나주에서 F5를, 1995년에는 진주에서 F6를, 1996년에는 다시 수원에서 F7을 공시하여 우량시 되는 SB891043-B-2-2-2N-3J-B 계통을 선발하였다. 1997년부터 2개년간 생산력검정시험을 실시한 결과 찰보리로서 수량성이 높고 줄기가 튼튼한 우수 계통으로 판명되어 ‘수원356호’로 계통명을 부여하고 1999년부터 3개년간 지역적응시험을 실시하였다. 그 결과 내한성이 강하여 강원도 산간지를 제외한 전국에 적응성을 갖는 광지역성이며 호위축병, 내습성 및 내도복성이 강한 계통으로 입증되어 2001년 12월 농작물직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘재안찰쌀보리’로 명명되었다</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>동호쌀보리</t>
+          <t>풍산찰쌀보리</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>동호쌀보리는 내재해 조숙 양질 다수성 쌀보리 신품종을 육성할 목적으로 내한성에 강하면서 보리호위축병(BaYMV)에 저항성인 내한쌀보리를 모본, 양질이면서 내한성 및 내재해성이 강한 마산과맥/강보리*7을 부본으로 하여 1988년에 인공교배하여 잡종 2세대까지는 집단 육종법, F3세대 이후는 계통육종법을 이용하여 HB88092-B-29-4-3-5-3 계통을 선발하였다. 1996년부터 2개년간 생산력검정 시험에 공시한 바 내한성 및 보리호위축병, 수발아에 강하면서 내습성은 중정도이며 보리쌀의 백도는 좋고 취반특성이 양호한 다수성 계통으로 인정되어 ‘익산47호’로 계통명을 부여하였다. 1998년부터 3개년간 전국 전작 1개소 답리작 4개소에서 지역저응시험을 실시한 결과 2000년 12월에 농작물 직무육성 신품종 선정 위원회에서 새로운 품종으로 결정됨과 동시에 ‘동호쌀보리’로 명명하여 쌀보리 재배지 및 보리호위축병 상습 발병지역에 보급하게 되었다.</t>
+          <t>중부지장에서 월동이 가능한 고품질 할맥용 찹쌀보리를 육성하기 위하여 1991년에 ‘SB850578-B-19/수원255호’조합의 F2 집단에서 단간 찰성인 개체를 모본으로, 내한성이 강한 2조보리 ‘수원212호’를 부본으로 온실에서 인공교배하고 F1 및 F2를 온실에서 양성하였다. 1993년부터는 포장에서 F3～F6 계통을 공시하여 우량시되는 SB919001GG-BG-19-2-5-B 계통을 선발하였다. 1997년부터 2개년간 수원과 나주에서 생산력검정시험을 실시한 결과 2조 찹쌀보리로서 단간이며 도복에 강하고 수량성이 높은 우수계통으로 확인되어 1999년부터 3개년간 지역적응시험을 실시하였다. 그 결과 2조 찹쌀보리임에도 불구하고 내한성이 강하여 수원 등 중부지방에서도 월동이 가능하고 수량성이 높은 단간 내도복성 계통임이 입증되어 2001년 12월 농작물직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘풍산찰쌀보리’로 명명되었다.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>재안찰쌀보리</t>
+          <t>새늘쌀보리</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>내재해 양질 다수성 품종을 육성하기 위하여 1989년에 호위축병에 강한 쌀보리 계통 ‘수원361호’를 모본으로 ‘SB79012-B-22-B-13/백과1호’ 조합의 F2 개체중 직립성이며 줄기가 강한 개체를 부본으로 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년과 1993년에는 수원에서 F3, F4를, 1994년에는 나주에서 F5를, 1995년에는 진주에서 F6를, 1996년에는 다시 수원에서 F7을 공시하여 우량시 되는 SB891043-B-2-2-2N-3J-B 계통을 선발하였다. 1997년부터 2개년간 생산력검정시험을 실시한 결과 찰보리로서 수량성이 높고 줄기가 튼튼한 우수 계통으로 판명되어 ‘수원356호’로 계통명을 부여하고 1999년부터 3개년간 지역적응시험을 실시하였다. 그 결과 내한성이 강하여 강원도 산간지를 제외한 전국에 적응성을 갖는 광지역성이며 호위축병, 내습성 및 내도복성이 강한 계통으로 입증되어 2001년 12월 농작물직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘재안찰쌀보리’로 명명되었다</t>
+          <t xml:space="preserve">새늘쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 양질 조숙 내재해성에 강한 요네자와모찌/올보리*6 F1조합을 모본, 양질이면서 내한성 및 내재해성이 강한 당고무기를 부본으로 하여 1988년에 인공교배를 실시하여 잡종 2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB88069-B-29-4-3-2-2-4 계통을 선발하였다.  1997～1998년도에 생산력검정시험에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병) 및 수량구성요소를 조사한 결과 그 특성이 우수하여 ‘익산 51호’로 계통명을 부여하여 1999년부터 3개년간 전작 1개소, 답리작 4개소에서 지역적응시험을 실시한 결과 2001 농작물 직무육성 신품종선정위원회에서 ‘새늘쌀보리’로 명명하고 1월 최저기온평균 -7℃이하 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었으며 특시 이품종은 내한성이 강하여 쌀보리 재배를 북상(중북상) 시키는데 일조를 할 것으로 사료된다.  </t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>풍산찰쌀보리</t>
+          <t>새한찰쌀보리</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>중부지장에서 월동이 가능한 고품질 할맥용 찹쌀보리를 육성하기 위하여 1991년에 ‘SB850578-B-19/수원255호’조합의 F2 집단에서 단간 찰성인 개체를 모본으로, 내한성이 강한 2조보리 ‘수원212호’를 부본으로 온실에서 인공교배하고 F1 및 F2를 온실에서 양성하였다. 1993년부터는 포장에서 F3～F6 계통을 공시하여 우량시되는 SB919001GG-BG-19-2-5-B 계통을 선발하였다. 1997년부터 2개년간 수원과 나주에서 생산력검정시험을 실시한 결과 2조 찹쌀보리로서 단간이며 도복에 강하고 수량성이 높은 우수계통으로 확인되어 1999년부터 3개년간 지역적응시험을 실시하였다. 그 결과 2조 찹쌀보리임에도 불구하고 내한성이 강하여 수원 등 중부지방에서도 월동이 가능하고 수량성이 높은 단간 내도복성 계통임이 입증되어 2001년 12월 농작물직무육성품종 선정심의회에서 신품종으로 선정됨과 동시에 ‘풍산찰쌀보리’로 명명되었다.</t>
+          <t>새한찰쌀보리는 내재해 양질 다수성 품종 육성을 목표로 1989년에 내도복성이며 찰성인 마산과맥/강보리조합의 F5계통(SB7803G-BC6-B-B-47-2)을 모본으로, 내한성이 강한 수원262호를 부본으로 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년과 1993년에는 수원에서 F3, F4를 1994년에는 나주에서 F5를, 1995년에는 진주에서 F6를 계통전개하여 선발하였으며 1996년에는 다시 수원에서 F7을 bulk로 공시하여 우량시 되는 SB891235-B-6-5-3N-1J-B 계통을 선발하였다. 1997년부터 3개년간 생산력검정시험을 실시한 결과 수량이 높고 줄기가 튼튼한 찹쌀보리 우량 계통으로 판명되어 수원364호로 계통명을 부여하고 2000년부터 3개년간 지역적응시험을 실시하였다. 그 결과 내한성이 매우 강할 뿐만 아니라 내습성, 내도복성이 강한 내재해성 계통으로 입증되어 2002년 10월 농작물직무육성 신품종선정위원회에서 신품종으로 선정함과 동시에 ‘새한찰쌀보리’로 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>새늘쌀보리</t>
+          <t>남호쌀보리</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t xml:space="preserve">새늘쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 양질 조숙 내재해성에 강한 요네자와모찌/올보리*6 F1조합을 모본, 양질이면서 내한성 및 내재해성이 강한 당고무기를 부본으로 하여 1988년에 인공교배를 실시하여 잡종 2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB88069-B-29-4-3-2-2-4 계통을 선발하였다.  1997～1998년도에 생산력검정시험에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병) 및 수량구성요소를 조사한 결과 그 특성이 우수하여 ‘익산 51호’로 계통명을 부여하여 1999년부터 3개년간 전작 1개소, 답리작 4개소에서 지역적응시험을 실시한 결과 2001 농작물 직무육성 신품종선정위원회에서 ‘새늘쌀보리’로 명명하고 1월 최저기온평균 -7℃이하 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었으며 특시 이품종은 내한성이 강하여 쌀보리 재배를 북상(중북상) 시키는데 일조를 할 것으로 사료된다.  </t>
+          <t>남호쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 재해에 강하고 양질 다수성인 나가데하다가를 모본, 단간 다수성인 시꼬구 42호를 부본으로 하여 1988년에 인공교배하여 잡종 2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB88154-B-65-2-4-2-3-3계통을 선발하였다.   1997년부터 2개년간 생산력검정에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병), 내습성, 내도복성, 수발아성 및 수량구성요소, 수량을 조사한 결과 그 특성이 우수하여 익산 55호로 계통명을 부여하였다. 2000년부터 3개년간 전국 전작 2지역, 답리작 4지역에서 지역적응시험을 실시한 결과 2002년 농작물 직무육성 신품종 선정 위원회에서 새로운 품종으로 결정되었으므로 ‘남호쌀보리’로 명명하여 1월 최저기온평균 -7℃이남 쌀보리 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>새한찰쌀보리</t>
+          <t>호반찰쌀보리</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>새한찰쌀보리는 내재해 양질 다수성 품종 육성을 목표로 1989년에 내도복성이며 찰성인 마산과맥/강보리조합의 F5계통(SB7803G-BC6-B-B-47-2)을 모본으로, 내한성이 강한 수원262호를 부본으로 인공교배하였다. 1990년에 F1을 양성한 후 이듬해 집단으로 F2를 전개하였고 1992년과 1993년에는 수원에서 F3, F4를 1994년에는 나주에서 F5를, 1995년에는 진주에서 F6를 계통전개하여 선발하였으며 1996년에는 다시 수원에서 F7을 bulk로 공시하여 우량시 되는 SB891235-B-6-5-3N-1J-B 계통을 선발하였다. 1997년부터 3개년간 생산력검정시험을 실시한 결과 수량이 높고 줄기가 튼튼한 찹쌀보리 우량 계통으로 판명되어 수원364호로 계통명을 부여하고 2000년부터 3개년간 지역적응시험을 실시하였다. 그 결과 내한성이 매우 강할 뿐만 아니라 내습성, 내도복성이 강한 내재해성 계통으로 입증되어 2002년 10월 농작물직무육성 신품종선정위원회에서 신품종으로 선정함과 동시에 ‘새한찰쌀보리’로 명명하였다.</t>
+          <t xml:space="preserve">호반찰쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 내재해성이 강하고 양질 다수성인 긴쌀보리를 모본, 찰성이면서 조숙으로 내재해성이 강하고 대립으로 다수성인 수원 291호를 부본으로 1994년에 인공교배하여 F2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB14056 -B-23-1계통을 선발하였다.  1999년부터 2개년간 생산력검정시험에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병), 내습성, 내도복성, 수발아성이 강하고 취반특성이 우수하여 익산57호로 계통명을 부여하였다. 2000년부터 3개년간 전국 전작 2지역, 답리작 4지역에서 지역적응시험을 실시한 결과 내한성이 강하고 보리호위축병에 저항성이고 조숙이면서 중립으로 취반특성이 양호한 답리작 적응으로 찰성쌀보리로 그 특성이 우수하여 2002년 농작물 직무육성신품종 선정위원회에서 새로운 품종으로 결정되었으므로 ‘호반찰쌀보리’로 명명하여 1월 최저기온평균 -7℃이남 쌀보리 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>남호쌀보리</t>
+          <t>새쌀보리</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>남호쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 재해에 강하고 양질 다수성인 나가데하다가를 모본, 단간 다수성인 시꼬구 42호를 부본으로 하여 1988년에 인공교배하여 잡종 2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB88154-B-65-2-4-2-3-3계통을 선발하였다.   1997년부터 2개년간 생산력검정에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병), 내습성, 내도복성, 수발아성 및 수량구성요소, 수량을 조사한 결과 그 특성이 우수하여 익산 55호로 계통명을 부여하였다. 2000년부터 3개년간 전국 전작 2지역, 답리작 4지역에서 지역적응시험을 실시한 결과 2002년 농작물 직무육성 신품종 선정 위원회에서 새로운 품종으로 결정되었으므로 ‘남호쌀보리’로 명명하여 1월 최저기온평균 -7℃이남 쌀보리 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었다</t>
+          <t>답리작에 알맞는 조숙 내재해 기계화적응 다수성품종을 육성하기 위하여 1973년 영산보리를 모본으로 하고 광계2호/청맥의 F1을 부본으로 하여 인공교배하였다. 계통육종법으로 육성 선발한 우량계통에 대하여 1980~1981년까지 2개년간 생산력검정시험을 실시하고 우수한 특성을 나타낸 HB7315-B-103-1-1-0계통을 ‘이리6호’로 계통명을 부여하였다. 1982년부터 1983년까지 2개년간 지역적응시험에 공시하여 답리작 적응성이 높은 광지역 다수성 품종으로 인정되어 ‘새쌀보리’로 명명하고 1984년부터 전국의 쌀보리 재배지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>호반찰쌀보리</t>
+          <t>내한쌀보리</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t xml:space="preserve">호반찰쌀보리는 답리작적응 조숙 양질 내재해 다수성 쌀보리 신품종을 육성할 목적으로 내재해성이 강하고 양질 다수성인 긴쌀보리를 모본, 찰성이면서 조숙으로 내재해성이 강하고 대립으로 다수성인 수원 291호를 부본으로 1994년에 인공교배하여 F2세대까지는 집단육종법, F3세대 이후는 계통육종법을 이용하여 HB14056 -B-23-1계통을 선발하였다.  1999년부터 2개년간 생산력검정시험에 공시한바 생육특성, 생리장해, 내병성(보리호위축병, 흰가루병), 내습성, 내도복성, 수발아성이 강하고 취반특성이 우수하여 익산57호로 계통명을 부여하였다. 2000년부터 3개년간 전국 전작 2지역, 답리작 4지역에서 지역적응시험을 실시한 결과 내한성이 강하고 보리호위축병에 저항성이고 조숙이면서 중립으로 취반특성이 양호한 답리작 적응으로 찰성쌀보리로 그 특성이 우수하여 2002년 농작물 직무육성신품종 선정위원회에서 새로운 품종으로 결정되었으므로 ‘호반찰쌀보리’로 명명하여 1월 최저기온평균 -7℃이남 쌀보리 답리작 재배지역 및 보리호위축병 상습발생 지역에 보급하게 되었다.  </t>
+          <t>우리나라에서 쌀보리는 1월 최저평균기온이 -5℃이상인 전남북 및 경남지역 에서 주로 재배되고 있으며 재배한계지역인 충남, 전북일부에서는 수량이 낮지만 내한성이 강한 백동을 재배하고 있는 실정이다. 그러나 백동은 1930년대에 도입된 일본품종으로 품질이 떨어지고 도복에 약하여 기계화재배에 부적합하지만 내한성이 강하여 1988년 6,500ha가 재배되고 있다. 이에 호남 농업시험장 맥류연구진은 이보다 우수한 품종을 육성하고자 1980년에 수원 189호/SB71107의 F1에 방주/SB71107의 F1을 인공교배시켜 잡종 2세대까지 집단육종법으로 육성하였고 이후 세대는 계통육종법으로 육성하던 중 1983년 F3에서 80443-B-103계통을 내한 다수성계통으로 선발하여 1984년부터 2년간 생산력검정시험에 공시한 후 그 우수성이 인정되어 ‘이리 16호’로 계통명을 부여하고 1986년부터 3년간 지역적 응시험을 실시한 결과 내한, 내병, 고전분, 다수성으로 인정되어 1988년 12월 8 일 주요농작물 종자심의회에서 장려품종으로 결정하고 품종명을 ‘내한쌀보리’ 로 명명하여 쌀보리재배 한계지역까지 보급할 수 있게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>새쌀보리</t>
+          <t>흰쌀보리</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>답리작에 알맞는 조숙 내재해 기계화적응 다수성품종을 육성하기 위하여 1973년 영산보리를 모본으로 하고 광계2호/청맥의 F1을 부본으로 하여 인공교배하였다. 계통육종법으로 육성 선발한 우량계통에 대하여 1980~1981년까지 2개년간 생산력검정시험을 실시하고 우수한 특성을 나타낸 HB7315-B-103-1-1-0계통을 ‘이리6호’로 계통명을 부여하였다. 1982년부터 1983년까지 2개년간 지역적응시험에 공시하여 답리작 적응성이 높은 광지역 다수성 품종으로 인정되어 ‘새쌀보리’로 명명하고 1984년부터 전국의 쌀보리 재배지역에 보급하게 되었다.</t>
+          <t>극조숙 내재해 양질 다수성 쌀보리 품종을 육성할 목적으로 1981년 방주/나가데하다가의 잡종 제1세대를 극조숙 대립 품종인 C108937와 인공교배하여 잡종 제2세대까지는 집단육종법, 잡종 제3세대 이후는 계통육종법에 따라 계통선발 실시하였으며, 1985년 잡종 제4세대에서 극조숙 내재해 양질 다수성으로 유망시되는 계통 HB 81055-B-7-6을 선발하여 1986~’89년까지 생산력검정시험에 공시하였던 바 극조숙, 중간, 대립, 양질 다수성으로 인정되어 "이리 25호"로 계통명을 부여하고 1990~1992년 3개년간 전국 7개소에서 지역적응시험 및 1991년 농가 실증시험을 실시한 결과 우수성이 인정되어 1992년 종자심의회에서 새로운 장려품종으로 결정됨과 동시에 "흰쌀보리"로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>내한쌀보리</t>
+          <t>사과(산사)</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>우리나라에서 쌀보리는 1월 최저평균기온이 -5℃이상인 전남북 및 경남지역 에서 주로 재배되고 있으며 재배한계지역인 충남, 전북일부에서는 수량이 낮지만 내한성이 강한 백동을 재배하고 있는 실정이다. 그러나 백동은 1930년대에 도입된 일본품종으로 품질이 떨어지고 도복에 약하여 기계화재배에 부적합하지만 내한성이 강하여 1988년 6,500ha가 재배되고 있다. 이에 호남 농업시험장 맥류연구진은 이보다 우수한 품종을 육성하고자 1980년에 수원 189호/SB71107의 F1에 방주/SB71107의 F1을 인공교배시켜 잡종 2세대까지 집단육종법으로 육성하였고 이후 세대는 계통육종법으로 육성하던 중 1983년 F3에서 80443-B-103계통을 내한 다수성계통으로 선발하여 1984년부터 2년간 생산력검정시험에 공시한 후 그 우수성이 인정되어 ‘이리 16호’로 계통명을 부여하고 1986년부터 3년간 지역적 응시험을 실시한 결과 내한, 내병, 고전분, 다수성으로 인정되어 1988년 12월 8 일 주요농작물 종자심의회에서 장려품종으로 결정하고 품종명을 ‘내한쌀보리’ 로 명명하여 쌀보리재배 한계지역까지 보급할 수 있게 되었다.</t>
+          <t xml:space="preserve">  수체 및 결실성   산사의 수자는 약간 직립성이고 수세는 약한 편이나 성목이 되면 나무가 크게 되는 경향이다. 화분 생산량이 많고 주요 재배 품종과 교배친화성이 높아 수분수로도 적합한 특성을 갖고 있다. 액화아 발생은 적은 편이나 단과지 발생이 잘 되어 풍산성이다.   과실 특성   숙기는 8월 하순으로 쓰가루보다 1주일 정도 빠르다. 수원지역은 8월 26일 경, 음성지역은 8월 10일 경, 청도지역은 8월 6일 경으로 사과 단경기에 출하되는 고급 조생품종으로 유망하다. 과실 크기는 200~250g으로 중소과종이며 과형은 원추형이다. 과피색은 등적색이고 과정부에 동녹이 약간 발생하나 상품성에 지장을 줄 정도는 아니다. 과육은 황백색이고 육질은 치밀하고 과즙이 많으며 당도는 13.7%, 산도는 0.47%로 감산이 잘 조화되어 있어 맛이 아주 좋다. 보구력은 15~20일 정도로 조생종 중에서는 특이하게 강하기 때문에 수송, 보관상 매우 유리하다.   내병성 및 기타 특성   쓰가루보다 숙기가 빠르고 수확전 낙과가 없으며 착색이 좋고 사과나무의 주요 병해인 흑성병, 반점낙엽병, 적성병에 강한 저항성을 나타낸다. 과실기부에 동녹이 발생하고 해거리가 약간 있어 매년 안정된 생산을 하기 어렵기 때문에 수량성이 낮다.   </t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>흰쌀보리</t>
+          <t>흰찰쌀보리</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>극조숙 내재해 양질 다수성 쌀보리 품종을 육성할 목적으로 1981년 방주/나가데하다가의 잡종 제1세대를 극조숙 대립 품종인 C108937와 인공교배하여 잡종 제2세대까지는 집단육종법, 잡종 제3세대 이후는 계통육종법에 따라 계통선발 실시하였으며, 1985년 잡종 제4세대에서 극조숙 내재해 양질 다수성으로 유망시되는 계통 HB 81055-B-7-6을 선발하여 1986~’89년까지 생산력검정시험에 공시하였던 바 극조숙, 중간, 대립, 양질 다수성으로 인정되어 "이리 25호"로 계통명을 부여하고 1990~1992년 3개년간 전국 7개소에서 지역적응시험 및 1991년 농가 실증시험을 실시한 결과 우수성이 인정되어 1992년 종자심의회에서 새로운 장려품종으로 결정됨과 동시에 "흰쌀보리"로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다.</t>
+          <t xml:space="preserve">양질 조숙 내재해 다수성 찹쌀보리 품종을 육성하기 위하여 1981년에 방사 6호와 찰성품종인 요네자와모찌를 인공교배하였다. 잡종6세대까지는 집단육종법으로 집단을 유지하였으며 잡종7세대이후는 계통육종법을 이용하여 1989년에 8세대에서 제반특성이 우수한 찹쌀보리로 유망시 되는 HB8101-B5-100-19계통을 선발하여 1990년 생산력검정시험을 실시한 결과 양질 조숙 내재해 다수성등 특성이 우수하다고 평가되어 "이리 28호"로 계통명을 부여하였다. 1991년 생산력검정 본시험을 실시하고 동시에 지역적응시험에 공시하여 93년까지 3개년간 시험한 결과 찹쌀보리 계통으로 우수성이 인정되어 1994년 종자심의회에서 새로운 장려품종으로 결정 "흰찰쌀보리"로 명명하고 충남이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>사과(산사)</t>
+          <t>사과(국광)</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t xml:space="preserve">  수체 및 결실성   산사의 수자는 약간 직립성이고 수세는 약한 편이나 성목이 되면 나무가 크게 되는 경향이다. 화분 생산량이 많고 주요 재배 품종과 교배친화성이 높아 수분수로도 적합한 특성을 갖고 있다. 액화아 발생은 적은 편이나 단과지 발생이 잘 되어 풍산성이다.   과실 특성   숙기는 8월 하순으로 쓰가루보다 1주일 정도 빠르다. 수원지역은 8월 26일 경, 음성지역은 8월 10일 경, 청도지역은 8월 6일 경으로 사과 단경기에 출하되는 고급 조생품종으로 유망하다. 과실 크기는 200~250g으로 중소과종이며 과형은 원추형이다. 과피색은 등적색이고 과정부에 동녹이 약간 발생하나 상품성에 지장을 줄 정도는 아니다. 과육은 황백색이고 육질은 치밀하고 과즙이 많으며 당도는 13.7%, 산도는 0.47%로 감산이 잘 조화되어 있어 맛이 아주 좋다. 보구력은 15~20일 정도로 조생종 중에서는 특이하게 강하기 때문에 수송, 보관상 매우 유리하다.   내병성 및 기타 특성   쓰가루보다 숙기가 빠르고 수확전 낙과가 없으며 착색이 좋고 사과나무의 주요 병해인 흑성병, 반점낙엽병, 적성병에 강한 저항성을 나타낸다. 과실기부에 동녹이 발생하고 해거리가 약간 있어 매년 안정된 생산을 하기 어렵기 때문에 수량성이 낮다.   </t>
+          <t xml:space="preserve">생육 특성   ’국광(國光, Ralls Janet)’ 사과는 수세가 강하고 수자는 개장성이다.   과실 특성   숙기가 11월 상순인 만생종 품종이다. 과중이 180∼200g 정도인 소과종으로 과형은 편원형이다.  과피는 두껍고 녹색바탕에 붉은색을 띤다. 과육은 황백색이며 육질은 조잡하나 과즙이 많다.  당도가 11.6°Bx 정도로 낮고 산도는 0.64%정도로 높아 수확시의 과실은 신맛이 많으나 저장 과실은 단맛과 신맛이 적당하여 맛이 매우 시원하다.   내병충성   ’국광’사과는 적진병 및 탄저병 등에 약한 품종이다.    수량성 및 상품성   ’국광’사과는 해거리가 적고 풍산성인 품종이다. 동녹 발생, 열과 및 수확전 낙과는 적은 편이나 착색이 불량하다. 질소 시비량이 많으면 착색이 극히 불량하다. 과실의 상온저장력은 180일 정도로 극히 강하다.  </t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>흰찰쌀보리</t>
+          <t>사과(화홍)</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t xml:space="preserve">양질 조숙 내재해 다수성 찹쌀보리 품종을 육성하기 위하여 1981년에 방사 6호와 찰성품종인 요네자와모찌를 인공교배하였다. 잡종6세대까지는 집단육종법으로 집단을 유지하였으며 잡종7세대이후는 계통육종법을 이용하여 1989년에 8세대에서 제반특성이 우수한 찹쌀보리로 유망시 되는 HB8101-B5-100-19계통을 선발하여 1990년 생산력검정시험을 실시한 결과 양질 조숙 내재해 다수성등 특성이 우수하다고 평가되어 "이리 28호"로 계통명을 부여하였다. 1991년 생산력검정 본시험을 실시하고 동시에 지역적응시험에 공시하여 93년까지 3개년간 시험한 결과 찹쌀보리 계통으로 우수성이 인정되어 1994년 종자심의회에서 새로운 장려품종으로 결정 "흰찰쌀보리"로 명명하고 충남이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
+          <t xml:space="preserve">수체   수세는 강한 편이며, 수자는 개장성이다. 1년생 가지의 색은 적갈색이고 피목수는 후지처럼 많으나 피목의 크기 및 모용 발생정도는 후지보다 작다. 절간장이 짧고 단과지 발생이 많은 스퍼 타입 품종이다.  잎의 거치는 이중둔거치형이며 신초상 털의 발생이 많은 편이다. 엽병의 색깔은 적색을 띈 녹색이며 길이는 세계일처럼 중정도이다.   결실성   단과지에 화아 착생이 많고 액화아 발생은 적은 편이며 결실년령에 도달함이 빠르다.개화기는 후지와 같은 시기이다. 화분량이 많고 화분 발아력이 양호하며 주요 재배품종과 교배친화성이 높아 수분수로도 알맞는 품종이다.   과실 특성   과실의 크기는 300~350g으로 후지 정도의 중대과종이며 과형은 원형 또는 원추형이고 과피는 황록색 바탕에 암홍색 줄무늬로 착색되어 외관이 미려하다.  과육색은 황백색으로육질이 치밀하고 과즙이 많으며 향기가 강하여 맛이 우수하다. 당도는 15%이상으로 후지보다 높고 산도는 0.24%로 ‘후지’ 보다 낮다. 숙기는 11월상순으로 후지보다 7~10일 늦다.  과육의 경도가 매우 높아 수송성이 강하며 저장력도 ‘후지’ 정도로 매우 강하여 상온저장시 150일간 저장이 가능하다.  </t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>사과(국광)</t>
+          <t>사과(후지)</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육 특성   ’국광(國光, Ralls Janet)’ 사과는 수세가 강하고 수자는 개장성이다.   과실 특성   숙기가 11월 상순인 만생종 품종이다. 과중이 180∼200g 정도인 소과종으로 과형은 편원형이다.  과피는 두껍고 녹색바탕에 붉은색을 띤다. 과육은 황백색이며 육질은 조잡하나 과즙이 많다.  당도가 11.6°Bx 정도로 낮고 산도는 0.64%정도로 높아 수확시의 과실은 신맛이 많으나 저장 과실은 단맛과 신맛이 적당하여 맛이 매우 시원하다.   내병충성   ’국광’사과는 적진병 및 탄저병 등에 약한 품종이다.    수량성 및 상품성   ’국광’사과는 해거리가 적고 풍산성인 품종이다. 동녹 발생, 열과 및 수확전 낙과는 적은 편이나 착색이 불량하다. 질소 시비량이 많으면 착색이 극히 불량하다. 과실의 상온저장력은 180일 정도로 극히 강하다.  </t>
+          <t xml:space="preserve">생육 특성   ‘후지’사과는 수세가 강하고 수자는 개장성이며 결실년령기가 빠르고 중장과지에 착과되며 꽃눈 형성이 다소 불량하고 격년결과성이 강한 품종이다.  개화기는 4월 하순 경이다.    과실 특성   ‘후지’사과는 숙기가 10월 하순~11월 상순인 만생종이다.  과중은 300g정도이며 과형은 원형 또는 장원형으로 크기가 균일하다.  과피는 황록색 바탕에 담홍색 줄무늬로 착색되며, 과육은 황백색이며 육질이 치밀하고 과즙이 많다.  과실의 당도는 14.6°Bx로 높고 산도는 0.38%로 감산이 적당하게 조화되어 맛이 매우 좋다.   내병충성   ‘후지’사과는 반점낙엽병에는 비교적 강한 편이고 부패병에는 매우 약하며 응애 피해를 받기 쉽다.    수량성 및 상품성   ‘후지’사과는 꽃눈 착생이 불량한 편으로 수량성이 3,000㎏/10a정도인 품종이다. 동녹 발생 및 수확전 낙과는 적은 편이나 착색이 불량하다. 질소 시용이 많거나 대과를 생산하는 경우 과경 부위에 열과가 많이 발생된다. 과실의 저장력은 180일 정도로 극히 강하다.  </t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>사과(화홍)</t>
+          <t>새찰쌀보리</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve">수체   수세는 강한 편이며, 수자는 개장성이다. 1년생 가지의 색은 적갈색이고 피목수는 후지처럼 많으나 피목의 크기 및 모용 발생정도는 후지보다 작다. 절간장이 짧고 단과지 발생이 많은 스퍼 타입 품종이다.  잎의 거치는 이중둔거치형이며 신초상 털의 발생이 많은 편이다. 엽병의 색깔은 적색을 띈 녹색이며 길이는 세계일처럼 중정도이다.   결실성   단과지에 화아 착생이 많고 액화아 발생은 적은 편이며 결실년령에 도달함이 빠르다.개화기는 후지와 같은 시기이다. 화분량이 많고 화분 발아력이 양호하며 주요 재배품종과 교배친화성이 높아 수분수로도 알맞는 품종이다.   과실 특성   과실의 크기는 300~350g으로 후지 정도의 중대과종이며 과형은 원형 또는 원추형이고 과피는 황록색 바탕에 암홍색 줄무늬로 착색되어 외관이 미려하다.  과육색은 황백색으로육질이 치밀하고 과즙이 많으며 향기가 강하여 맛이 우수하다. 당도는 15%이상으로 후지보다 높고 산도는 0.24%로 ‘후지’ 보다 낮다. 숙기는 11월상순으로 후지보다 7~10일 늦다.  과육의 경도가 매우 높아 수송성이 강하며 저장력도 ‘후지’ 정도로 매우 강하여 상온저장시 150일간 저장이 가능하다.  </t>
+          <t>알이 굵고 밥맛이 좋으며 수확기가 빠르고 내재해성이 강한 다수성인 찰쌀보리를 육성하고자 1985년에 찰성이며 키가 작고 내도복성이 강한 6조쌀보리 중간모본인 요네자와/SB71107*2//C108409를 모본으로 하고, 내한성이 강한 2조겉보리 계통 수원212호를 부분으로 인공교배한 후에 계통 육종법으로 우수한 850595-B-8-2-0을 선발하였다. 1990년부터 2년 동안 생산력 검정시험을 실시한 결과 그 우수성이 인정되어 수원292호로 계통명을 부여하고 1992년부터 3개년간 지역적응시험을 실시하고 1994년에는 농가실증시험을 수행하였다. 그 결과 찰성이면서 알이 굵고 수확기가 빠를 뿐만 아니라 내재해성이 강하고 다수성으로 인정되어 1994년 종자심의회에서 ‘새찰쌀보리’란 이름으로 경기북부, 충북, 강원도를 제외한 전국 쌀보리 재배지대의 장려품종으로 결정되어 농가에 보급되게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>사과(후지)</t>
+          <t>올쌀보리</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육 특성   ‘후지’사과는 수세가 강하고 수자는 개장성이며 결실년령기가 빠르고 중장과지에 착과되며 꽃눈 형성이 다소 불량하고 격년결과성이 강한 품종이다.  개화기는 4월 하순 경이다.    과실 특성   ‘후지’사과는 숙기가 10월 하순~11월 상순인 만생종이다.  과중은 300g정도이며 과형은 원형 또는 장원형으로 크기가 균일하다.  과피는 황록색 바탕에 담홍색 줄무늬로 착색되며, 과육은 황백색이며 육질이 치밀하고 과즙이 많다.  과실의 당도는 14.6°Bx로 높고 산도는 0.38%로 감산이 적당하게 조화되어 맛이 매우 좋다.   내병충성   ‘후지’사과는 반점낙엽병에는 비교적 강한 편이고 부패병에는 매우 약하며 응애 피해를 받기 쉽다.    수량성 및 상품성   ‘후지’사과는 꽃눈 착생이 불량한 편으로 수량성이 3,000㎏/10a정도인 품종이다. 동녹 발생 및 수확전 낙과는 적은 편이나 착색이 불량하다. 질소 시용이 많거나 대과를 생산하는 경우 과경 부위에 열과가 많이 발생된다. 과실의 저장력은 180일 정도로 극히 강하다.  </t>
+          <t xml:space="preserve">올쌀보리는 1984년에 조숙 다수성 조합인 오월보리/송학보리의 잡종 제1세대에 송학보리를 여교배하여 잡종 제2세대까지는 집단육종법, 잡종 제3세대 이후는 계통육종법에 의해 계통선발을 실시하였으며 1989년 잡종 제5세대에서 극조숙 내재해 양질, 다수성으로 유망시 되는 계통 HB84244-B-12-3-2를 선발하여 특성검정시험 및 생산력검정시험에 공시하였던 바 극조숙, 대립, 양질 내재해 다수성으로 인정되어 ‘이리30호’로 계통명을 부여하고 1992~1994년까지 3개년간 전국 7개소에서 지역적응시험과 1994년 농가실증시험을 실시한 결과 그 우수성이 인정되어 1995년 종자심의회에서 새로운 장려품종으로 결정됨과 동시에 ‘올쌀보리’로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>새찰쌀보리</t>
+          <t>두원찹쌀보리</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>알이 굵고 밥맛이 좋으며 수확기가 빠르고 내재해성이 강한 다수성인 찰쌀보리를 육성하고자 1985년에 찰성이며 키가 작고 내도복성이 강한 6조쌀보리 중간모본인 요네자와/SB71107*2//C108409를 모본으로 하고, 내한성이 강한 2조겉보리 계통 수원212호를 부분으로 인공교배한 후에 계통 육종법으로 우수한 850595-B-8-2-0을 선발하였다. 1990년부터 2년 동안 생산력 검정시험을 실시한 결과 그 우수성이 인정되어 수원292호로 계통명을 부여하고 1992년부터 3개년간 지역적응시험을 실시하고 1994년에는 농가실증시험을 수행하였다. 그 결과 찰성이면서 알이 굵고 수확기가 빠를 뿐만 아니라 내재해성이 강하고 다수성으로 인정되어 1994년 종자심의회에서 ‘새찰쌀보리’란 이름으로 경기북부, 충북, 강원도를 제외한 전국 쌀보리 재배지대의 장려품종으로 결정되어 농가에 보급되게 되었다.</t>
+          <t>취반특성이 우수한 할맥용 2조 대립 찰성 쌀보리를 육성하기 위하여 조숙, 찰성이면서 초형이 우수한 중간모본 SB841467-BC1-B-17G-BG-0 (Wafranubet*2/사천6호)를 모본으로, 단간으로서 내도복성 계통인 수원 258호를 부본으로 인공교배하여 숙기가 빠르고 찰성이면서 도복에 강한 계통인 SB881339-B-25G-1J를 선발하였다. 1992년부터 2개년간 생산력 검정시험을 수행한 결과 우수성이 인정되어 수원 304호로 계통명을 부여하고 1993년부터 3개년간 남부지역에서 지역적응시험과 1996년 농가실증시험을 실시하였다. 그 결과 단간종으로 도복에 강하고 숙기가 빠르며 곡립의 균일도가 높을 뿐만 아니라 대립종으로 천립중이 높고 수량성도 높은 우수계통으로 선발되었다. 할맥용 보리로서의 품질 검정 결과, 립백도와 할맥 제품수율이 높고, 찰성으로 흡수율, 퍼짐성이 좋으며 호화온도가 낮아 취반특성이 우수한 것으로 나타났다. 또한 식이섬유인 β-glucan의 함량도 높아 건강식으로도 유망시 되어 1996년 주요농작물 종자협의회에서 전남, 제주도의 쌀보리 재배지대에 적합한 장려품종으로 결정되었다.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>올쌀보리</t>
+          <t>광활쌀보리</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t xml:space="preserve">올쌀보리는 1984년에 조숙 다수성 조합인 오월보리/송학보리의 잡종 제1세대에 송학보리를 여교배하여 잡종 제2세대까지는 집단육종법, 잡종 제3세대 이후는 계통육종법에 의해 계통선발을 실시하였으며 1989년 잡종 제5세대에서 극조숙 내재해 양질, 다수성으로 유망시 되는 계통 HB84244-B-12-3-2를 선발하여 특성검정시험 및 생산력검정시험에 공시하였던 바 극조숙, 대립, 양질 내재해 다수성으로 인정되어 ‘이리30호’로 계통명을 부여하고 1992~1994년까지 3개년간 전국 7개소에서 지역적응시험과 1994년 농가실증시험을 실시한 결과 그 우수성이 인정되어 1995년 종자심의회에서 새로운 장려품종으로 결정됨과 동시에 ‘올쌀보리’로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
+          <t>쌀보리는 겉보리에 비해 비교적 숙기가 늦고 내한성이 약하여 재배지대 북상에 어려움을 겪고 있는 실정이다. 특히 농가소득증대, 겨울철 유휴지 작물재배 및 환경정화 차원에서 남부지방 보리재배 확대는 필수적이라 할 수 있다. 숙기도 빠르며 내한성, 보리호위축병 등 재해저항성이 강한 광지역 다수성 쌀보리 품종을 육성할 목적으로 1987년도에 단간 다수성인 영산보리/기까이하다가//방사 6호 조합을 모본, 양질이며 보리호위축병에 저항성인 HB80016-B-49계통을 부본으로하여 인공교배를 실시하였고 잡종 제2세대까지는 집단육종법, 그 이후세대는 계통육종법에 따라 계통선발을 실시하였으며 1991년 잡종 제5세대에서 조숙 내재해 광지역 다수성 쌀보리 계통으로 유망시 되는 HB87186-B-12-1-1을 선발하여 1992~1993년까지 2개년간 생산력검정 예비시험을 실시하였던 바 그 우수성이 인정되었다.그 후 이리35호로 계통명을 부여하고 1994~1996년까지 3개년간 전국 전작 6개소, 답리작 3개소에서 지역적응시험 및 1996년 농가실증시험을 실시한 결과 조숙, 호위축병 저항성 및 내도복성 등의 특성과 함께 수량 안정성이 높아 1996년 주요농작물 종자협의회에서 새로운 쌀보리 장려품종으로 결정됨과 동시에 광활쌀보리로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>두원찹쌀보리</t>
+          <t>사과(스타킹데리셔스)</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>취반특성이 우수한 할맥용 2조 대립 찰성 쌀보리를 육성하기 위하여 조숙, 찰성이면서 초형이 우수한 중간모본 SB841467-BC1-B-17G-BG-0 (Wafranubet*2/사천6호)를 모본으로, 단간으로서 내도복성 계통인 수원 258호를 부본으로 인공교배하여 숙기가 빠르고 찰성이면서 도복에 강한 계통인 SB881339-B-25G-1J를 선발하였다. 1992년부터 2개년간 생산력 검정시험을 수행한 결과 우수성이 인정되어 수원 304호로 계통명을 부여하고 1993년부터 3개년간 남부지역에서 지역적응시험과 1996년 농가실증시험을 실시하였다. 그 결과 단간종으로 도복에 강하고 숙기가 빠르며 곡립의 균일도가 높을 뿐만 아니라 대립종으로 천립중이 높고 수량성도 높은 우수계통으로 선발되었다. 할맥용 보리로서의 품질 검정 결과, 립백도와 할맥 제품수율이 높고, 찰성으로 흡수율, 퍼짐성이 좋으며 호화온도가 낮아 취반특성이 우수한 것으로 나타났다. 또한 식이섬유인 β-glucan의 함량도 높아 건강식으로도 유망시 되어 1996년 주요농작물 종자협의회에서 전남, 제주도의 쌀보리 재배지대에 적합한 장려품종으로 결정되었다.</t>
+          <t xml:space="preserve">생육 특성   ’스타킹데리셔스’ 사과는 수세가 보통이고 수자(樹姿)는 유목기에는 직립성이나 성목이 되면 개장성으로 된다. 결과연령에 도달하는 시기가 늦으며, 결실이 시작되면 가지가 늘어져 수관이 넓어진다. 화아착생은 양호한 편이나 수분 및 수정이 불량하고 격년결과가 심한 편이다. 개화기는 ’조나골드’보다 늦으며 수원지방에서의 만개기는 5월 8일 경이다.   과실 특성   ’스타킹데리셔스’ 사과의 숙기는 9월 하순경이다.  과중은 200∼300g 정도이고 과형은 원추형으로 과실 꽃받침 부근에 5개의 융기가 생기는 것이 특징이다.  과피는 암홍색 줄무늬로 착색되며, 과육은 황백색으로 육질이 연하고 과즙이 많다. 과실의 당도는 12.0°Bx로 높지 않으나 산미가 적고 향기가 많아 맛이 좋은 편이다.   내병충성   ’스타킹데리셔스’ 사과는 반점낙엽병에 약한 편이고 진딧물 등의 피해도 많이 받는 편이다. </t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>광활쌀보리</t>
+          <t>팔도보리</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>쌀보리는 겉보리에 비해 비교적 숙기가 늦고 내한성이 약하여 재배지대 북상에 어려움을 겪고 있는 실정이다. 특히 농가소득증대, 겨울철 유휴지 작물재배 및 환경정화 차원에서 남부지방 보리재배 확대는 필수적이라 할 수 있다. 숙기도 빠르며 내한성, 보리호위축병 등 재해저항성이 강한 광지역 다수성 쌀보리 품종을 육성할 목적으로 1987년도에 단간 다수성인 영산보리/기까이하다가//방사 6호 조합을 모본, 양질이며 보리호위축병에 저항성인 HB80016-B-49계통을 부본으로하여 인공교배를 실시하였고 잡종 제2세대까지는 집단육종법, 그 이후세대는 계통육종법에 따라 계통선발을 실시하였으며 1991년 잡종 제5세대에서 조숙 내재해 광지역 다수성 쌀보리 계통으로 유망시 되는 HB87186-B-12-1-1을 선발하여 1992~1993년까지 2개년간 생산력검정 예비시험을 실시하였던 바 그 우수성이 인정되었다.그 후 이리35호로 계통명을 부여하고 1994~1996년까지 3개년간 전국 전작 6개소, 답리작 3개소에서 지역적응시험 및 1996년 농가실증시험을 실시한 결과 조숙, 호위축병 저항성 및 내도복성 등의 특성과 함께 수량 안정성이 높아 1996년 주요농작물 종자협의회에서 새로운 쌀보리 장려품종으로 결정됨과 동시에 광활쌀보리로 명명하여 충남이남의 쌀보리 재배지역에 보급하게 되었다</t>
+          <t>조숙 내재해 양질 다수성 품종을 육성하기 위하여 1987년에 ‘Kimugi’를 모본으로, ‘하가네무기//Triple Beard Club Mariout/JO 1062’의 F2 집단중 숙기가 빠른 개체를 부본으로 인공교배하여 ‘SB870181G-B-B-15’계통을 선발하였다. 1992년부터 4년간 생산력검정시험을 실시한 결과 종실이 굵고 줄기가 튼튼하며 수량이 우수한 계통으로 판명되어 ‘수원329호’로 계통명을 부여하고 1996년부터 3년간 지역적응시험을 실시하였다. 그 결과 전국의 겉보리 지대에서 적응성을 갖는 광지역 적응성 계통임이 입증되었으며 1999년에는 국가품종목록에 ‘팔도보리’로 등재하여 내재해 양질 다수성 겉보리로서 전국에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>사과(스타킹데리셔스)</t>
+          <t>사과(양광)</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육 특성   ’스타킹데리셔스’ 사과는 수세가 보통이고 수자(樹姿)는 유목기에는 직립성이나 성목이 되면 개장성으로 된다. 결과연령에 도달하는 시기가 늦으며, 결실이 시작되면 가지가 늘어져 수관이 넓어진다. 화아착생은 양호한 편이나 수분 및 수정이 불량하고 격년결과가 심한 편이다. 개화기는 ’조나골드’보다 늦으며 수원지방에서의 만개기는 5월 8일 경이다.   과실 특성   ’스타킹데리셔스’ 사과의 숙기는 9월 하순경이다.  과중은 200∼300g 정도이고 과형은 원추형으로 과실 꽃받침 부근에 5개의 융기가 생기는 것이 특징이다.  과피는 암홍색 줄무늬로 착색되며, 과육은 황백색으로 육질이 연하고 과즙이 많다. 과실의 당도는 12.0°Bx로 높지 않으나 산미가 적고 향기가 많아 맛이 좋은 편이다.   내병충성   ’스타킹데리셔스’ 사과는 반점낙엽병에 약한 편이고 진딧물 등의 피해도 많이 받는 편이다. </t>
+          <t xml:space="preserve">생육 특성  ’양광’ 사과는 수세가 중정도이고 수자는 개장성이다.  단중과지(短中果枝)의 발생이 많고 액화아 발생이 적은 품종이다.  가지와 잎의 형태 및 색깔은 골든데리셔스와 유사하다.   과실 특성   ’양광’ 사과는 숙기가 10월 상순인 중만생종으로 수원지방에서의 수확기는 10월 5일경이다.  과중은 300g 정도이며 과형은 원 또는 장원형이다.  과피는 밝은 농홍색으로 착색되나, 동녹 발생이 심하여 무대재배시는 외관이 좋지 않다.  과육은 육질이 약간 거칠고 단단한 편이며 당도는 13.8°Bx, 산도는 0.43%정도로 맛이 좋다.  수량성 및 상품성   ’양광’ 사과는 수량성이 3,500㎏/10a으로 풍산성이며 열과 및 수확 전 낙과가 적다. </t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>팔도보리</t>
+          <t>대연보리</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>조숙 내재해 양질 다수성 품종을 육성하기 위하여 1987년에 ‘Kimugi’를 모본으로, ‘하가네무기//Triple Beard Club Mariout/JO 1062’의 F2 집단중 숙기가 빠른 개체를 부본으로 인공교배하여 ‘SB870181G-B-B-15’계통을 선발하였다. 1992년부터 4년간 생산력검정시험을 실시한 결과 종실이 굵고 줄기가 튼튼하며 수량이 우수한 계통으로 판명되어 ‘수원329호’로 계통명을 부여하고 1996년부터 3년간 지역적응시험을 실시하였다. 그 결과 전국의 겉보리 지대에서 적응성을 갖는 광지역 적응성 계통임이 입증되었으며 1999년에는 국가품종목록에 ‘팔도보리’로 등재하여 내재해 양질 다수성 겉보리로서 전국에 보급하게 되었다.</t>
+          <t xml:space="preserve">양질 내재해 다수성 품종육성을 목표로 1990년 내재해 다수성 밀양 43호를 모본으로, 양질인 올보리를 부본으로 인공교배하여 잡종 3세대까지 집단 육종법으로 양성하였고 잡종 4세대부터는 계통 육성법에 의해 우량계통을 선발 고정해 오던 중 1994년 YB 3625-3B-9를 선발하였다. 1995~1996년 생산력검정시험을 실시하였던 바 곡립백도가 높고 대립이며 수량성도 높아 밀양 94호의 계통명을 부여한 후 1997~1999년까지 3개년간 전국 5개지역에서 지역적응시험을 실시하였다. 그 결과 내재해 양질 다수성 품종으로 그 우수성이 인정되어 ‘대연보리’로 명명하여 중부 내륙지역을 제외한 경남북, 전남북, 충남지역에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>사과(양광)</t>
+          <t>상록보리</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육 특성  ’양광’ 사과는 수세가 중정도이고 수자는 개장성이다.  단중과지(短中果枝)의 발생이 많고 액화아 발생이 적은 품종이다.  가지와 잎의 형태 및 색깔은 골든데리셔스와 유사하다.   과실 특성   ’양광’ 사과는 숙기가 10월 상순인 중만생종으로 수원지방에서의 수확기는 10월 5일경이다.  과중은 300g 정도이며 과형은 원 또는 장원형이다.  과피는 밝은 농홍색으로 착색되나, 동녹 발생이 심하여 무대재배시는 외관이 좋지 않다.  과육은 육질이 약간 거칠고 단단한 편이며 당도는 13.8°Bx, 산도는 0.43%정도로 맛이 좋다.  수량성 및 상품성   ’양광’ 사과는 수량성이 3,500㎏/10a으로 풍산성이며 열과 및 수확 전 낙과가 적다. </t>
+          <t>내병성 품종을 개발하기 위하여 호위축병과 흰가루병에 저항성인 육성계통 SB85159G-B-46(수원203호/M-65-220)을 모본으로, 중단간이며 도복에 강한 탑골보리를 부본으로 1988년 교배를 하여 SB880271-YB-89 계통을 선발하였다. 1992년부터 1996년까지 생산력검정시험을 실시한 결과 우수한 계통임이 확인되어 ‘수원339호’로 계통명을 부여한 후 3개년에 걸친 지역적응시험을 실시하였다. 그 결과, 한해(寒害)와 도복에 강하며 호위축병과 흰가루병에 저항성일 뿐만 아니라 백도가 높은 양질의 겉보리로서 그 우수성이 입증되어 ‘상록보리’로 명명, 농가에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>대연보리</t>
+          <t>사과(감홍)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t xml:space="preserve">양질 내재해 다수성 품종육성을 목표로 1990년 내재해 다수성 밀양 43호를 모본으로, 양질인 올보리를 부본으로 인공교배하여 잡종 3세대까지 집단 육종법으로 양성하였고 잡종 4세대부터는 계통 육성법에 의해 우량계통을 선발 고정해 오던 중 1994년 YB 3625-3B-9를 선발하였다. 1995~1996년 생산력검정시험을 실시하였던 바 곡립백도가 높고 대립이며 수량성도 높아 밀양 94호의 계통명을 부여한 후 1997~1999년까지 3개년간 전국 5개지역에서 지역적응시험을 실시하였다. 그 결과 내재해 양질 다수성 품종으로 그 우수성이 인정되어 ‘대연보리’로 명명하여 중부 내륙지역을 제외한 경남북, 전남북, 충남지역에 보급하게 되었다.  </t>
+          <t xml:space="preserve">나무 특성   수세는 강한 편이며, 수자는 개장성이다.  1년생 가지의 색은 매우 짙은 초콜렛색이며 피목수 및 털의 발생이 많고 피목의 크기는 적다. 절간장이 짧고 단과지 발생이 많은 스퍼 타입 품종이다. 잎의 거치는 둔거치형이며 신초상 털의 발생이 많은 편이다.    결실성   단과지에 꽃눈이 잘 형성되고 측지 발생도 비교적 많은 편으로 결과 부위 확보 문제가없다.  개화기는 쓰가루와 같은 시기이며 수원지방 평균 만개기는 5월 5일이다.  화분발아력및 화분생산량이 많고 주요 재배 품종과 교배친화성이 높아 수분수 품종으로 적합하다.    과실 특성   과실의 크기는 400~450g으로 대과종이고 과형은 장원형이고 동녹이 심하게 발생되고 착색이 진행되면 암홍색조로 되어 외관이 좋지 못하다.  그러나 봉지를 씌운 과실은 선홍색 줄무늬로 착색되어 외관이 극히 수려하다. 과육색은 황백색이고 과육은 치밀하고 과즙은 많고 감산미가 잘 조화되어 맛이 극히 농후하다.  과즙의 당도는 17%이상으로 후지에 비해 극히 높고 산도는 0.48％로 후지보다 약간 높다.  숙기는 10월 중순으로 조나골드보다는 약간 늦고 후지보다는 약간 빠른 중만생종으로 수원 지방 수확기는 10월 15~20일이다. 과실의 상온 저장력은 후지보다 약하여 60일 정도이다.  감홍 사과는 당도가 극히 높고 맛이 매우 우수하므로 고급사과 생산을 목표로 하면 고수익을 올릴 수 있기 때문에 봉지씌울 노동력의 여유가 있는 농가에 보급할 가치가 있다.   내병충성 및 기타 특성   반점낙엽병에는 약하나 겹무뉘썩음병에는 강한 저항성을 나타내었다. 화아 발생이 많고 열과 및 수확전 낙과가 없어 상품과 비율이 높으나 봉지 씌우기 재배를 하여야 하므로 수량성은 후지 정도로 10a당 3,000㎏ 정도로 추정된다 </t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>상록보리</t>
+          <t>태평보리</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>내병성 품종을 개발하기 위하여 호위축병과 흰가루병에 저항성인 육성계통 SB85159G-B-46(수원203호/M-65-220)을 모본으로, 중단간이며 도복에 강한 탑골보리를 부본으로 1988년 교배를 하여 SB880271-YB-89 계통을 선발하였다. 1992년부터 1996년까지 생산력검정시험을 실시한 결과 우수한 계통임이 확인되어 ‘수원339호’로 계통명을 부여한 후 3개년에 걸친 지역적응시험을 실시하였다. 그 결과, 한해(寒害)와 도복에 강하며 호위축병과 흰가루병에 저항성일 뿐만 아니라 백도가 높은 양질의 겉보리로서 그 우수성이 입증되어 ‘상록보리’로 명명, 농가에 보급하게 되었다.</t>
+          <t>태평보리는 양질 내재해 다수성 품종육성을 목표로 1987년 조숙 다수성인 밀양 6호를 모본으로 양질 내재해성인 Hiproly/Yokogari 2 의 F1를 부본으로 인공교배하여 잡종3세대까지 집단육종법으로 양성하였고 잡종 제 4세대부터는 계통육성법에 의해 우량계통을 선발 고정해 오던중 1993년에 YB2888-3B-5-3-1를 선발하였다.  그후 1994~1997까지 4년간 생산력 검정시험을 실시하였던 바 내도복성이고 양질 다수성인 밀양 98호를 선발하여 1998~2000년까지 3개년간 전국 5개지역에서 지역적응시험을 실시하였다 그 결과 내도복, 양질, 다수성품종으로 그 우수성이 인정되어, 새로운 장려품종 ‘태평보리’로 명명하여 남부 내륙지역을 제외한 경남북, 전남북 지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>사과(감홍)</t>
+          <t>사과(북두)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t xml:space="preserve">나무 특성   수세는 강한 편이며, 수자는 개장성이다.  1년생 가지의 색은 매우 짙은 초콜렛색이며 피목수 및 털의 발생이 많고 피목의 크기는 적다. 절간장이 짧고 단과지 발생이 많은 스퍼 타입 품종이다. 잎의 거치는 둔거치형이며 신초상 털의 발생이 많은 편이다.    결실성   단과지에 꽃눈이 잘 형성되고 측지 발생도 비교적 많은 편으로 결과 부위 확보 문제가없다.  개화기는 쓰가루와 같은 시기이며 수원지방 평균 만개기는 5월 5일이다.  화분발아력및 화분생산량이 많고 주요 재배 품종과 교배친화성이 높아 수분수 품종으로 적합하다.    과실 특성   과실의 크기는 400~450g으로 대과종이고 과형은 장원형이고 동녹이 심하게 발생되고 착색이 진행되면 암홍색조로 되어 외관이 좋지 못하다.  그러나 봉지를 씌운 과실은 선홍색 줄무늬로 착색되어 외관이 극히 수려하다. 과육색은 황백색이고 과육은 치밀하고 과즙은 많고 감산미가 잘 조화되어 맛이 극히 농후하다.  과즙의 당도는 17%이상으로 후지에 비해 극히 높고 산도는 0.48％로 후지보다 약간 높다.  숙기는 10월 중순으로 조나골드보다는 약간 늦고 후지보다는 약간 빠른 중만생종으로 수원 지방 수확기는 10월 15~20일이다. 과실의 상온 저장력은 후지보다 약하여 60일 정도이다.  감홍 사과는 당도가 극히 높고 맛이 매우 우수하므로 고급사과 생산을 목표로 하면 고수익을 올릴 수 있기 때문에 봉지씌울 노동력의 여유가 있는 농가에 보급할 가치가 있다.   내병충성 및 기타 특성   반점낙엽병에는 약하나 겹무뉘썩음병에는 강한 저항성을 나타내었다. 화아 발생이 많고 열과 및 수확전 낙과가 없어 상품과 비율이 높으나 봉지 씌우기 재배를 하여야 하므로 수량성은 후지 정도로 10a당 3,000㎏ 정도로 추정된다 </t>
+          <t xml:space="preserve">생육특성   ’북두’는 수세가 강하고 수자는 반개장성으로 가지가 굵고 피목이 크며 단과지에 꽃눈착생이 잘된다.  꽃은 ’후지’보다 크고 ’육오’보다는 작으며 3배체 품종이므로 수분수로는 이용할 수 없다.  토양이 너무 비옥하거나 질소과다일 경우 과심곰팡이병이 심하여 낙과가 많고, 고두병이 발생하기 쉽다.   과실 특성   숙기는 10월 상중순으로 과중은 400g내외로 대과품종이다.  과형은 원형이다. 과피색은 자홍색∼홍색이고 과육색은 황백색이다.  육질이 치밀하고 과즙이 많으며 당도는 15.9°Bx이고 산도는 0.41%로 맛은 매우 좋은 편이다.   내병충성   ’북두’는 반점낙엽병 및 흑성병에 비교적 약하고 진딧물이 붙기 쉽다.  적응지역   표고가 높고(400m 이상) 위도가 높은 지역에서 재배하는 것이 착색면에서 유리하다. 따라서 우리나라 중남부의 표고가 낮은 지역은 재배적지라고 할 수없다  </t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>태평보리</t>
+          <t>건강보리</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>태평보리는 양질 내재해 다수성 품종육성을 목표로 1987년 조숙 다수성인 밀양 6호를 모본으로 양질 내재해성인 Hiproly/Yokogari 2 의 F1를 부본으로 인공교배하여 잡종3세대까지 집단육종법으로 양성하였고 잡종 제 4세대부터는 계통육성법에 의해 우량계통을 선발 고정해 오던중 1993년에 YB2888-3B-5-3-1를 선발하였다.  그후 1994~1997까지 4년간 생산력 검정시험을 실시하였던 바 내도복성이고 양질 다수성인 밀양 98호를 선발하여 1998~2000년까지 3개년간 전국 5개지역에서 지역적응시험을 실시하였다 그 결과 내도복, 양질, 다수성품종으로 그 우수성이 인정되어, 새로운 장려품종 ‘태평보리’로 명명하여 남부 내륙지역을 제외한 경남북, 전남북 지역에 보급하게 되었다.</t>
+          <t>건강보리는 영남농업연구소에서 1992년에 대립이며 탈망이 잘 되는 밀양55호를 모본으로 하고 단간 다수성인 수원 360호를 부본으로 인공교배하여 1993년부터 1997년까지 계통육성을 하던 중 재배적 특성이 우수한 YB3855-B-B-B14-1계통을 선발하여 1997년부터 1998년까지 생산력검정시험 결과 단간 내도복 다수성이 유망시 되어 이 계통을 밀양 110호의 계통명으로 지역적응시험에 2000～2002년 3년간 공시하여 시험한 결과 단간 내도복 다수성 계통임이 인정되어 2002년 농작물 직무육성 신품종선정 위원회에서 새로운 장려품종으로 결정하고 ‘건강보리’로 명명하여 영호남 평야지 보리재배지에 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>사과(북두)</t>
+          <t>송학보리</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육특성   ’북두’는 수세가 강하고 수자는 반개장성으로 가지가 굵고 피목이 크며 단과지에 꽃눈착생이 잘된다.  꽃은 ’후지’보다 크고 ’육오’보다는 작으며 3배체 품종이므로 수분수로는 이용할 수 없다.  토양이 너무 비옥하거나 질소과다일 경우 과심곰팡이병이 심하여 낙과가 많고, 고두병이 발생하기 쉽다.   과실 특성   숙기는 10월 상중순으로 과중은 400g내외로 대과품종이다.  과형은 원형이다. 과피색은 자홍색∼홍색이고 과육색은 황백색이다.  육질이 치밀하고 과즙이 많으며 당도는 15.9°Bx이고 산도는 0.41%로 맛은 매우 좋은 편이다.   내병충성   ’북두’는 반점낙엽병 및 흑성병에 비교적 약하고 진딧물이 붙기 쉽다.  적응지역   표고가 높고(400m 이상) 위도가 높은 지역에서 재배하는 것이 착색면에서 유리하다. 따라서 우리나라 중남부의 표고가 낮은 지역은 재배적지라고 할 수없다  </t>
+          <t>조숙, 단간, 내재해, 다수성 신품종 육성을 목표로 1975년 조숙, 내습, 다수성인 백동/청맥/이즈미와세하다가의 F1을 모본으로 하고 단간 조숙인 사가하다가/방사 6호의 F1을 부본으로 인공교배하여 잡종 2세대까지 집단육종법, 이후 세대는 계통육종법으로 육성하였으며 1979년도 잡종 제4세대에서 형질이 우수한 75185 - B- 19 - 2를 1980년에 생산력검정시험에 공시하였던 바 제반특성이 유망시되어 ’이리 4호’로 계통명을 부여하고 1981년부터 1982년까지 2년간에 걸쳐 전작 7개소, 답리작 11개소에서 지역적응시험을 실시하였다. 극조숙이면서 단간 내습 내도복성이 강한 다수성으로 인정되어 1982년에 ’송학보리’로 장려품종으로 명명하여 농가에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>건강보리</t>
+          <t>긴쌀보리</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>건강보리는 영남농업연구소에서 1992년에 대립이며 탈망이 잘 되는 밀양55호를 모본으로 하고 단간 다수성인 수원 360호를 부본으로 인공교배하여 1993년부터 1997년까지 계통육성을 하던 중 재배적 특성이 우수한 YB3855-B-B-B14-1계통을 선발하여 1997년부터 1998년까지 생산력검정시험 결과 단간 내도복 다수성이 유망시 되어 이 계통을 밀양 110호의 계통명으로 지역적응시험에 2000～2002년 3년간 공시하여 시험한 결과 단간 내도복 다수성 계통임이 인정되어 2002년 농작물 직무육성 신품종선정 위원회에서 새로운 장려품종으로 결정하고 ‘건강보리’로 명명하여 영호남 평야지 보리재배지에 보급하게 되었다</t>
+          <t>획기적인 다수성 쌀보리 품종육성을 목표로 이삭당 낱알수가 많고 1,000립중이 무거운 이상적인 이삭 형태를 가진 품종을 육성하고자 1978년에 강보리/방사6호의 잡종제1세대를 모본으로 목포42호/홍매의 잡종제1세대를 부본으로 인공교배하여 계통육종법으로 육성하였다. 1982년 잡종제4세대에서 이삭길이가 길고 낱알수가 많으며 굵은 계통(HB 78057-B-28-4)을 선발하여 1983년부터 2개년간 생산력검정시험을, 1985년부터 지역적응시험에 공시하였던 바 다수성 신품종으로 인정받아 종자심의회에서 1988년에 장려품종으로 결정되었다</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>송학보리</t>
+          <t>늘쌀보리</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>조숙, 단간, 내재해, 다수성 신품종 육성을 목표로 1975년 조숙, 내습, 다수성인 백동/청맥/이즈미와세하다가의 F1을 모본으로 하고 단간 조숙인 사가하다가/방사 6호의 F1을 부본으로 인공교배하여 잡종 2세대까지 집단육종법, 이후 세대는 계통육종법으로 육성하였으며 1979년도 잡종 제4세대에서 형질이 우수한 75185 - B- 19 - 2를 1980년에 생산력검정시험에 공시하였던 바 제반특성이 유망시되어 ’이리 4호’로 계통명을 부여하고 1981년부터 1982년까지 2년간에 걸쳐 전작 7개소, 답리작 11개소에서 지역적응시험을 실시하였다. 극조숙이면서 단간 내습 내도복성이 강한 다수성으로 인정되어 1982년에 ’송학보리’로 장려품종으로 명명하여 농가에 보급하게 되었다.</t>
+          <t xml:space="preserve">답리작 적응 조숙 내재해 양질 다수성 신품종을 육성하기 위하여 1975년 영산보리/영산보리/기까이하다가 조합에서 선발된 계통을 중간 모본으로 활용하여 BLANCO MARIOUT /J-546의 F1과 인공교배하여 계통 육종법으로 육성하였다. 1979년 잡종 제4세대에서 병성으로서 소수형인 HB75199-B-21-2 계통을 선발하여 1980년도 생산력검정을 실시한 결과 한해와 도복에 강하면서 양질 다수성으로 유망시 되어 ‘이리5호’로 계통명을 부여하고 1981~1984년까지 4년간 지역적응시험 및 농가실증시험을 실시한 결과 우수성이 인정되어 1984년 12월 종자 심의회에서 새로운 장려품종으로 결정되어 대전 이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>긴쌀보리</t>
+          <t>무등쌀보리</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>획기적인 다수성 쌀보리 품종육성을 목표로 이삭당 낱알수가 많고 1,000립중이 무거운 이상적인 이삭 형태를 가진 품종을 육성하고자 1978년에 강보리/방사6호의 잡종제1세대를 모본으로 목포42호/홍매의 잡종제1세대를 부본으로 인공교배하여 계통육종법으로 육성하였다. 1982년 잡종제4세대에서 이삭길이가 길고 낱알수가 많으며 굵은 계통(HB 78057-B-28-4)을 선발하여 1983년부터 2개년간 생산력검정시험을, 1985년부터 지역적응시험에 공시하였던 바 다수성 신품종으로 인정받아 종자심의회에서 1988년에 장려품종으로 결정되었다</t>
+          <t xml:space="preserve">전남농촌진흥원에서는 단간, 내도복, 다수성 신품종육성을 목표로 전남지방에 산재해 있는 쌀보리 재래종 중에서 숙기가 늦지 않고 단간이면서 다수형으로 보이는 124계통을 1981년에 수집하여 1982년에 순계분리하고 1983년에 순계분리와 동시에 생산력검정예비시험을 실시한 후 유망한 계통에 대해서는 1984년에 생산력검정본시험을 실시하였던 바, 전남 광양군 봉강면에서 수집 분리한 계통이 전남3호로 계통명을 부여하고 1985~1986년에 걸쳐 지역적응시험에 공시한 결과 본 계통이 내도복 다수성 계통으로 그 우수성이 인정되어 1986주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 무등(無等)쌀보리로 명명하여 전남, 경남지방의 쌀보리 재배적지에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>늘쌀보리</t>
+          <t>찰쌀보리</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve">답리작 적응 조숙 내재해 양질 다수성 신품종을 육성하기 위하여 1975년 영산보리/영산보리/기까이하다가 조합에서 선발된 계통을 중간 모본으로 활용하여 BLANCO MARIOUT /J-546의 F1과 인공교배하여 계통 육종법으로 육성하였다. 1979년 잡종 제4세대에서 병성으로서 소수형인 HB75199-B-21-2 계통을 선발하여 1980년도 생산력검정을 실시한 결과 한해와 도복에 강하면서 양질 다수성으로 유망시 되어 ‘이리5호’로 계통명을 부여하고 1981~1984년까지 4년간 지역적응시험 및 농가실증시험을 실시한 결과 우수성이 인정되어 1984년 12월 종자 심의회에서 새로운 장려품종으로 결정되어 대전 이남의 쌀보리 재배지역에 보급하게 되었다.  </t>
+          <t>찰성, 내한, 내도복성인 쌀보리 품종을 육성하기 위해 1979년 찰성인 요네자와모찌에 중간모본인 SB71107(수원165호/Haganemugi//올보리/3/올보리//Morsen/ Dover)을 3번 여교잡한 F5와 세도-기까이를 교배하여 SB79012 -B-29-B-0를 선발, 1985년 생산력검정시험을 수행한 결과 찰성, 내한, 다수성 쌀보리로 인정되어, 수원236호로 계통명을 부여하고 1986년부터 3개년간 지역적응시험을, 1987년에 농가실증시험을 실시하였다. 그 결과 수원236호는 내한성 및 내도복성이 강하고 백도가 높으며, 찰성으로 취반시 밥이 부드럽고 맛이 극히 양호하여 1988년 주요농작물 종자심의회에서 "찰쌀보리" 로 명명하고 장려품종으로 결정하였다.</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>무등쌀보리</t>
+          <t>밀양겉보리</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve">전남농촌진흥원에서는 단간, 내도복, 다수성 신품종육성을 목표로 전남지방에 산재해 있는 쌀보리 재래종 중에서 숙기가 늦지 않고 단간이면서 다수형으로 보이는 124계통을 1981년에 수집하여 1982년에 순계분리하고 1983년에 순계분리와 동시에 생산력검정예비시험을 실시한 후 유망한 계통에 대해서는 1984년에 생산력검정본시험을 실시하였던 바, 전남 광양군 봉강면에서 수집 분리한 계통이 전남3호로 계통명을 부여하고 1985~1986년에 걸쳐 지역적응시험에 공시한 결과 본 계통이 내도복 다수성 계통으로 그 우수성이 인정되어 1986주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 무등(無等)쌀보리로 명명하여 전남, 경남지방의 쌀보리 재배적지에 보급하게 되었다.  </t>
+          <t xml:space="preserve">영남농업연구소에서 1982년 극조숙 내도복 다수성 오월보리를 모본으로 무사시노무기, 밀양6호, 하가네무기의 F1을 부본으로 인공교배한 후대조합에서 이단수가 적고 간장이 균일하며 도복에도 강한 YB1854-B-B-9-2 계통을 선발하여 1987~1988 2개년간 생산력검정시험을 실시하였던 바 답리작용 조숙 다수성 계통으로 유망시 되었다. 따라서 이계통을 밀양43호의 계통명으로 1989~1991 3개년간 지역적응시험에 실시한 결과 기계화 적응형 조숙 내도복 다수성 계통임이 확인되어 농림수산부의 1991주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 밀양겉보리로 명명하여 영호남의 평야지대에 보급하게 되었다.  </t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>찰쌀보리</t>
+          <t>사과(조나골드)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>찰성, 내한, 내도복성인 쌀보리 품종을 육성하기 위해 1979년 찰성인 요네자와모찌에 중간모본인 SB71107(수원165호/Haganemugi//올보리/3/올보리//Morsen/ Dover)을 3번 여교잡한 F5와 세도-기까이를 교배하여 SB79012 -B-29-B-0를 선발, 1985년 생산력검정시험을 수행한 결과 찰성, 내한, 다수성 쌀보리로 인정되어, 수원236호로 계통명을 부여하고 1986년부터 3개년간 지역적응시험을, 1987년에 농가실증시험을 실시하였다. 그 결과 수원236호는 내한성 및 내도복성이 강하고 백도가 높으며, 찰성으로 취반시 밥이 부드럽고 맛이 극히 양호하여 1988년 주요농작물 종자심의회에서 "찰쌀보리" 로 명명하고 장려품종으로 결정하였다.</t>
+          <t xml:space="preserve">  생육특성   ’조나골드’는 수세가 왕성하고 수자는 개장성으로 발생각도가 넓은 가지가 잘 나온다. 조기결실성이며 개화기는 ’쓰가루’보다 빠르다.   과실 특성   ’조나골드’는 숙기가 10월 상순인 중생종으로 과중은 300∼350g, 과형은 원형∼장원형이다. 과피는 황색바탕에 선홍색으로 착색되어 외관이 미려하며, 과육은 황백색이고 과즙이 많다. 과실의 당도는 14.5°Bx로 높고 산미가 적당하여 맛이 좋은 품종이다.   내병충성   ’조나골드’는 점무늬낙엽병에는 강하나 흰가루병에는 약하다.  수량성 및 상품성   ’조나골드’는 단과지 및 중과지에 꽃눈형성이 잘 되고 수량성이 3,500㎏/10a으로 풍산성인 품종이다. 과실표면은 농홍색으로 착색이 잘되고(80%이상) 열과 및 수확전낙과가 적다. 과실의 상온 저장력은 30일 정도이며 저장 중 과실표면에 왁스(脂質)가 나오기 쉽다.    </t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>밀양겉보리</t>
+          <t>새알보리</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t xml:space="preserve">영남농업연구소에서 1982년 극조숙 내도복 다수성 오월보리를 모본으로 무사시노무기, 밀양6호, 하가네무기의 F1을 부본으로 인공교배한 후대조합에서 이단수가 적고 간장이 균일하며 도복에도 강한 YB1854-B-B-9-2 계통을 선발하여 1987~1988 2개년간 생산력검정시험을 실시하였던 바 답리작용 조숙 다수성 계통으로 유망시 되었다. 따라서 이계통을 밀양43호의 계통명으로 1989~1991 3개년간 지역적응시험에 실시한 결과 기계화 적응형 조숙 내도복 다수성 계통임이 확인되어 농림수산부의 1991주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 밀양겉보리로 명명하여 영호남의 평야지대에 보급하게 되었다.  </t>
+          <t>새알보리는 1983년 내습 다수성인 알보리에 잡종 4세대였던 YB726-B-B-14-1 계통을 인공교배하여 1984~1987년에 걸쳐 계통육성을 하던 중 재배특성이 우량한 YB2164-B-B-14-1 계통을 선발하여 1988~1989 2년간 생산력검정시험을 실시한 바 조숙 내재해 다수성으로 유망시 되었다. 따라서 이 계통을 밀양 48호의 계통명으로 지역적응시험에 1990~1992 3년간 실시하여 조숙 내재해 다수성 계통임이 확인되어 농립수산부 1992주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 새알보리로 명명하여 경남·북의 평야지대에 보급하게 되었다</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>사과(조나골드)</t>
+          <t>새강보리</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t xml:space="preserve">  생육특성   ’조나골드’는 수세가 왕성하고 수자는 개장성으로 발생각도가 넓은 가지가 잘 나온다. 조기결실성이며 개화기는 ’쓰가루’보다 빠르다.   과실 특성   ’조나골드’는 숙기가 10월 상순인 중생종으로 과중은 300∼350g, 과형은 원형∼장원형이다. 과피는 황색바탕에 선홍색으로 착색되어 외관이 미려하며, 과육은 황백색이고 과즙이 많다. 과실의 당도는 14.5°Bx로 높고 산미가 적당하여 맛이 좋은 품종이다.   내병충성   ’조나골드’는 점무늬낙엽병에는 강하나 흰가루병에는 약하다.  수량성 및 상품성   ’조나골드’는 단과지 및 중과지에 꽃눈형성이 잘 되고 수량성이 3,500㎏/10a으로 풍산성인 품종이다. 과실표면은 농홍색으로 착색이 잘되고(80%이상) 열과 및 수확전낙과가 적다. 과실의 상온 저장력은 30일 정도이며 저장 중 과실표면에 왁스(脂質)가 나오기 쉽다.    </t>
+          <t xml:space="preserve">바이러스병과 도복에 강한 엿기름용 품종을 육성하기 위하여 1984년에 ’CMB81A -1812/강보리’를 모본으로 숙기가 빠른 ’미유기/알보리’를 부본으로 하여 교배한 후 잡종세대를 양성, 선발하였고 1988년부터 3개년간 생산력검정시험을 실시한 결과 우수 계통임이 확인되어 ’수원276호’로 계통명을 부여하였다. 1991년부터는 3년간 지역적응시험을 실시한 결과, 바이러스병인 호위축병과 도복에 강한 다수성 겉보리로서 엿기름 수율과 효소력가가 매우 높아 엿기름용 보리로 인정되어 1993년 장려품종으로 지정함과 동시에 ’새강보리’로 명명하였다.  </t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>새알보리</t>
+          <t>사과(육오)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>새알보리는 1983년 내습 다수성인 알보리에 잡종 4세대였던 YB726-B-B-14-1 계통을 인공교배하여 1984~1987년에 걸쳐 계통육성을 하던 중 재배특성이 우량한 YB2164-B-B-14-1 계통을 선발하여 1988~1989 2년간 생산력검정시험을 실시한 바 조숙 내재해 다수성으로 유망시 되었다. 따라서 이 계통을 밀양 48호의 계통명으로 지역적응시험에 1990~1992 3년간 실시하여 조숙 내재해 다수성 계통임이 확인되어 농립수산부 1992주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 새알보리로 명명하여 경남·북의 평야지대에 보급하게 되었다</t>
+          <t xml:space="preserve"> [생육 특성] ’육오’는 수세가 매우 강하고 수자는 반개장성이며 단과지, 중과지에 결실이 양호한 품종이다. 개화기는 빠른 편으로 4월 하순경이며 3배체 품종으로 화분의 임성이 나빠 수분수로 이용할 수 없다.   [과실 특성]  ’육오’는 숙기가 10월 상순인 중생종으로 수원지방에서의 수확기는 10월 5일경이다. 과중이 400g정도인 대과종으로 과형은 장원 또는 원형이다.  과피는 황녹색으로 착색되어 외관이 좋으며 과육은 황백색이며 육질이 연하고 과즙이 많으며 향기가 좋다. 과실의 당도는 12.0°Bx이며 산도는 0.33%로 감산이 적당하게 조화되어 맛이 좋다.   [내병충성]  ’육오’는 반점낙엽병과 부패병에 저항성인 품종이다.</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>새강보리</t>
+          <t>큰알보리</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t xml:space="preserve">바이러스병과 도복에 강한 엿기름용 품종을 육성하기 위하여 1984년에 ’CMB81A -1812/강보리’를 모본으로 숙기가 빠른 ’미유기/알보리’를 부본으로 하여 교배한 후 잡종세대를 양성, 선발하였고 1988년부터 3개년간 생산력검정시험을 실시한 결과 우수 계통임이 확인되어 ’수원276호’로 계통명을 부여하였다. 1991년부터는 3년간 지역적응시험을 실시한 결과, 바이러스병인 호위축병과 도복에 강한 다수성 겉보리로서 엿기름 수율과 효소력가가 매우 높아 엿기름용 보리로 인정되어 1993년 장려품종으로 지정함과 동시에 ’새강보리’로 명명하였다.  </t>
+          <t>양질 내도복 다수성 겉보리 신품종 육성을 목표로 하여 1983년 내도복 다수성인 알보리를 모본으로 하고, 대립이면서 탈망성이 좋은 불가리아 품종 Wong을 부본으로 인공교배하여 잡종 제2세대까지는 집단육종법으로 양성하고, 잡종 제3세대부터는 계통육종법에 의해 우량계통을 선발해 오던중 1987년 유망계통 YB2166-3B -1을 선발하였다. 그후 1988~1990년까지 3년간 생산력검정시험을 실시하였던 바 백도가 높고 대립이며 수량성도 높아서 밀양53호의 계통명을 부여하여 1991~1993년까지 3개년간의 지역적응시험과 1993년의 농가실증시험을 실시한 결과 대립 양질 내도복 다수성 품종으로 그 우수성이 확인되어 새로운 장려품종 ‘큰알보리’로 명명하여 영남지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>사과(육오)</t>
+          <t>사과(홍옥)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [생육 특성] ’육오’는 수세가 매우 강하고 수자는 반개장성이며 단과지, 중과지에 결실이 양호한 품종이다. 개화기는 빠른 편으로 4월 하순경이며 3배체 품종으로 화분의 임성이 나빠 수분수로 이용할 수 없다.   [과실 특성]  ’육오’는 숙기가 10월 상순인 중생종으로 수원지방에서의 수확기는 10월 5일경이다. 과중이 400g정도인 대과종으로 과형은 장원 또는 원형이다.  과피는 황녹색으로 착색되어 외관이 좋으며 과육은 황백색이며 육질이 연하고 과즙이 많으며 향기가 좋다. 과실의 당도는 12.0°Bx이며 산도는 0.33%로 감산이 적당하게 조화되어 맛이 좋다.   [내병충성]  ’육오’는 반점낙엽병과 부패병에 저항성인 품종이다.</t>
+          <t xml:space="preserve">  생육 특성   ’홍옥(紅玉)’사과는 수세가 보통이고 수자는 반개장성이며 조기결실성이며 화아 착생이 양호하고 성과기에 도달하는 시기가 빠른 풍산성인 품종이다. 개화기는 ’스타킹데리셔스’, ’후지’와 같은 시기로 수원지방에서의 만개기는 5월 8일경이다.   과실 특성   ’홍옥’ 사과의 숙기는 10월 상순경이다. 과중은 220g정도로 소과이고 과형은 편원 또는 원형이며 과피는 황색 바탕에 농홍색으로 착색된다.  과육은 황백색으로 육질이 연하며 당도는 13.0°Bx정도이며 산미가 강한 편이나, 향기가 매우 좋고 맛은 홍색 사과의 대표적인 것으로 평가되고 있다.  특히 가공적성이 우수하여 가공용으로 이용 가능성이 높다.   수량성 및 상품성   ’홍옥’사과는 화아착생이 많고 수량성은 3,500㎏/10a으로 풍산성인 품종이다. 과실 정부에 동녹이 발생되며 후기낙과도 많은 편이다. 과실의 상온저장력은 1개월 정도이며 저장중에 고두병이 발생된다. </t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>큰알보리</t>
+          <t>사과(하크나인)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>양질 내도복 다수성 겉보리 신품종 육성을 목표로 하여 1983년 내도복 다수성인 알보리를 모본으로 하고, 대립이면서 탈망성이 좋은 불가리아 품종 Wong을 부본으로 인공교배하여 잡종 제2세대까지는 집단육종법으로 양성하고, 잡종 제3세대부터는 계통육종법에 의해 우량계통을 선발해 오던중 1987년 유망계통 YB2166-3B -1을 선발하였다. 그후 1988~1990년까지 3년간 생산력검정시험을 실시하였던 바 백도가 높고 대립이며 수량성도 높아서 밀양53호의 계통명을 부여하여 1991~1993년까지 3개년간의 지역적응시험과 1993년의 농가실증시험을 실시한 결과 대립 양질 내도복 다수성 품종으로 그 우수성이 확인되어 새로운 장려품종 ‘큰알보리’로 명명하여 영남지역에 보급하게 되었다.</t>
+          <t xml:space="preserve">생육특성   수세는 ’후지’보다 강하고 수자는 개장성이다.  꽃눈착생은 비교적 양호하고 조기결실성이다. 유목기에 수세가 너무 강하면 단과지의 과실은 모양이 좋지 않고 균일하지 않다. 생산성은 ’후지’와 거의 유사하다.  3배체 품종이므로 수분수로는 부적당하다.   과실 특성   숙기는 10월 상순으로 과중은 300∼350g이다.  과형은 원형∼장원형이고 과피색은 선홍색 줄무늬로 착색된다. 과육색은 황백색인데 ’후지’보다 황색이 강하다.  육질의 치밀도는 중정도이고 과즙이 많으며 당도는 14.1°Bx이고 산도는 0.40%로 맛은 좋은 편이다.   수량성 및 상품성  생산성은 높아서 ‘후지’와 같은 수준이다.  해거리 및 조기낙과는 거의 없고 후기낙과가 다소 발생한다.  저장력은 중정도이며 저온저장 중 내부갈변이 다소 발생한다.  그밖에 관리상 문제되는 병해충은 아직까지 발견되지 않고 있다. </t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>사과(홍옥)</t>
+          <t>대백보리</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t xml:space="preserve">  생육 특성   ’홍옥(紅玉)’사과는 수세가 보통이고 수자는 반개장성이며 조기결실성이며 화아 착생이 양호하고 성과기에 도달하는 시기가 빠른 풍산성인 품종이다. 개화기는 ’스타킹데리셔스’, ’후지’와 같은 시기로 수원지방에서의 만개기는 5월 8일경이다.   과실 특성   ’홍옥’ 사과의 숙기는 10월 상순경이다. 과중은 220g정도로 소과이고 과형은 편원 또는 원형이며 과피는 황색 바탕에 농홍색으로 착색된다.  과육은 황백색으로 육질이 연하며 당도는 13.0°Bx정도이며 산미가 강한 편이나, 향기가 매우 좋고 맛은 홍색 사과의 대표적인 것으로 평가되고 있다.  특히 가공적성이 우수하여 가공용으로 이용 가능성이 높다.   수량성 및 상품성   ’홍옥’사과는 화아착생이 많고 수량성은 3,500㎏/10a으로 풍산성인 품종이다. 과실 정부에 동녹이 발생되며 후기낙과도 많은 편이다. 과실의 상온저장력은 1개월 정도이며 저장중에 고두병이 발생된다. </t>
+          <t>대백보리는 1984년 다수성인 알보리와 조숙인 조강보리 F1에 내한성이 강한 동보리1호를 부본으로 인공교배한 조합으로 F3세대까지는 집단육종법으로 육성하고 F4세대부터는 계통육성법에 의한 우량계통을 선발하여 오던 중 1990년에 YB2039- 3B-11-1-2로 선발된 계통이다. 재배적 형질이 우수하고 보리쌀의 백도가 높으면서 대립이고 수량성도 우수하여 밀양 67호의 계통명을 부여하여 1993~1995년까지 3년간 전국 8개지역 전작 6개소, 답리작 5개소에서 지역검정시험을 실시하였다. 지역적응시험 결과 식용보리로서 품질이 우수하고 우리나라 중부와 남부 대부분 지역에서 재배가 가능한 광지역 적응성이며 농민들의 요구에 부응하는 대립종으로 판명되어 1995년 주요농작물종자협의회에서 장려품종으로 결정되고 대백보리로 명명하여 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>사과(하크나인)</t>
+          <t>서둔찰보리</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t xml:space="preserve">생육특성   수세는 ’후지’보다 강하고 수자는 개장성이다.  꽃눈착생은 비교적 양호하고 조기결실성이다. 유목기에 수세가 너무 강하면 단과지의 과실은 모양이 좋지 않고 균일하지 않다. 생산성은 ’후지’와 거의 유사하다.  3배체 품종이므로 수분수로는 부적당하다.   과실 특성   숙기는 10월 상순으로 과중은 300∼350g이다.  과형은 원형∼장원형이고 과피색은 선홍색 줄무늬로 착색된다. 과육색은 황백색인데 ’후지’보다 황색이 강하다.  육질의 치밀도는 중정도이고 과즙이 많으며 당도는 14.1°Bx이고 산도는 0.40%로 맛은 좋은 편이다.   수량성 및 상품성  생산성은 높아서 ‘후지’와 같은 수준이다.  해거리 및 조기낙과는 거의 없고 후기낙과가 다소 발생한다.  저장력은 중정도이며 저온저장 중 내부갈변이 다소 발생한다.  그밖에 관리상 문제되는 병해충은 아직까지 발견되지 않고 있다. </t>
+          <t>대립 양질의 찰성 겉보리 품종을 육성하기 위하여 1978년부터 찰성인 요네자와모찌무기를 인자친으로, 대립이면서 광지역적응성 품종인 올보리를 반복친으로하여 5회 여교잡하였다. 1984년부터 계통선발하여 선발된 SB78618-BC5-GB-5 -12 계통이 우량시되어 1986년 부터 1887년 까지 생산력검정시험을 실시하였다. 그 결과 찰성이면서 대립이며 수량성도 높아 ‘수원252호’로 계통명을 부여한 후 1987~1990년까지 그리고 1995년 등 4개년에 걸친 지역적응시험과 1996년의 농가실증시험을 실시한 결과, 양질의 찰성 겉보리로서 대립이고 품질이 우수한 광지역적응성 계통으로 입증되어 1996년 주요농작물 종자협의회에서 ‘서둔찰보리’로 명명, 장려품종으로 결정되었다.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>대백보리</t>
+          <t>미락보리</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>대백보리는 1984년 다수성인 알보리와 조숙인 조강보리 F1에 내한성이 강한 동보리1호를 부본으로 인공교배한 조합으로 F3세대까지는 집단육종법으로 육성하고 F4세대부터는 계통육성법에 의한 우량계통을 선발하여 오던 중 1990년에 YB2039- 3B-11-1-2로 선발된 계통이다. 재배적 형질이 우수하고 보리쌀의 백도가 높으면서 대립이고 수량성도 우수하여 밀양 67호의 계통명을 부여하여 1993~1995년까지 3년간 전국 8개지역 전작 6개소, 답리작 5개소에서 지역검정시험을 실시하였다. 지역적응시험 결과 식용보리로서 품질이 우수하고 우리나라 중부와 남부 대부분 지역에서 재배가 가능한 광지역 적응성이며 농민들의 요구에 부응하는 대립종으로 판명되어 1995년 주요농작물종자협의회에서 장려품종으로 결정되고 대백보리로 명명하여 보급하게 되었다.</t>
+          <t>미락보리는 양질 내재해 다수성 품종육성을 목표로 내재해 다수성인 밀양23호를 모본으로, 양질조합인 Hiproly/수원18호의 후대 고정계통을 부본으로 1986년에 인공교배하였다. F3세대까지는 집단육종법으로 육성하였고 F4세대부터는 계통육성법에 의한 우량계통을 선발하여 고정해오던 중 1991년에 YB2764-3B-4-2로 선발된 계통이다. 이 계통을 1992~93년에 생산력 검정시험에 공시하였던 바, 보리쌀 백도가 높으면서 대립이고 수량성도 높아 밀양 72호의 계통명을 부여하여 1994~96년까지 3개년간 전국 8개지역에서 지역적응성시험을 실시하였다. 지역 적응시험 결과 내재해 양질 다수성 품종으로 그 우수성이 인정되어 1997년 주요농작물종자협의회에서 장려품종으로 결정되었고 ‘미락보리’로 명명하여 경남북, 전북, 충남북 지역에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>서둔찰보리</t>
+          <t>보리(찰보리)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>대립 양질의 찰성 겉보리 품종을 육성하기 위하여 1978년부터 찰성인 요네자와모찌무기를 인자친으로, 대립이면서 광지역적응성 품종인 올보리를 반복친으로하여 5회 여교잡하였다. 1984년부터 계통선발하여 선발된 SB78618-BC5-GB-5 -12 계통이 우량시되어 1986년 부터 1887년 까지 생산력검정시험을 실시하였다. 그 결과 찰성이면서 대립이며 수량성도 높아 ‘수원252호’로 계통명을 부여한 후 1987~1990년까지 그리고 1995년 등 4개년에 걸친 지역적응시험과 1996년의 농가실증시험을 실시한 결과, 양질의 찰성 겉보리로서 대립이고 품질이 우수한 광지역적응성 계통으로 입증되어 1996년 주요농작물 종자협의회에서 ‘서둔찰보리’로 명명, 장려품종으로 결정되었다.</t>
+          <t>찰성 내도복 다수성 품종을 육성하기 위하여 1978년 찰성이며 쌀보리인 ’마산과맥’을 인자친으로 하고, 내도복 광지역 다수성 특성을 도입하고자 반복친으로 ’강보리’를 여교잡하여 강보리를 닮은 찰성 계통을 육성하였다. 1982~1983년에 생산력검정시험에 공시한 결과 우수성이 인정되어 ’수원227호’로 계통명을 부여하였다. 1984년 지역적응시험을 실시한 결과 강간성이고 직립이며 내도복성이 강하고 다수성이며, 특히 찰성으로 취반특성 및 콜레스테롤 억제효과 등 식품 영양학적 특성이 양호하여 1984년에 장려품종으로 결정함과 동시에 ’찰보리’로 명명하였다.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>미락보리</t>
+          <t>사과(홍월)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>미락보리는 양질 내재해 다수성 품종육성을 목표로 내재해 다수성인 밀양23호를 모본으로, 양질조합인 Hiproly/수원18호의 후대 고정계통을 부본으로 1986년에 인공교배하였다. F3세대까지는 집단육종법으로 육성하였고 F4세대부터는 계통육성법에 의한 우량계통을 선발하여 고정해오던 중 1991년에 YB2764-3B-4-2로 선발된 계통이다. 이 계통을 1992~93년에 생산력 검정시험에 공시하였던 바, 보리쌀 백도가 높으면서 대립이고 수량성도 높아 밀양 72호의 계통명을 부여하여 1994~96년까지 3개년간 전국 8개지역에서 지역적응성시험을 실시하였다. 지역 적응시험 결과 내재해 양질 다수성 품종으로 그 우수성이 인정되어 1997년 주요농작물종자협의회에서 장려품종으로 결정되었고 ‘미락보리’로 명명하여 경남북, 전북, 충남북 지역에 보급하게 되었다.</t>
+          <t xml:space="preserve">  수체 및 결실성   수세는 약하고 수자는 개장성이다. ’홍옥’과 유사한 특성을 가지며 가지가 가늘고 늘어진다. 단과지 및 중과지에 화아가 많이 형성되고 액화아 발생도 많아 풍산성이다. 가지가 늘어지기 쉬우므로 결과지가 쇠약해지기 쉽다. 개화기는 ’후지’와 같아 수원 지방에서의 만개기는 5월 6일 경이다.   과실 특성   과실의 크기는 250∼300g정도, 과형은 원 또는 장원형, 과피는 농홍색 줄무늬로 착색된다. 육 질이 연하고 당도가 높고 산미가 약간 있어 맛은 좋은 편이다. 7월 중순부터 과점을 중심으로 붉은 점이 생기고 그 후 과육 조직이 죽고 그 부분이 갈라지므로 상품성이 있는 과실을 생산하려면 일찍 봉지를 씌워야 한다.  ’쓰가루’ 보다 약 한달 늦은 9월 하순∼10월 상 순에 성숙되는 품종으로 상온 저장력은 ’쓰가루’와 같이 약한 편이다.   내병충성 및 기타 특성   점무늬낙엽병 및 겹무늬썩음병에 강한 편이다. 동녹 및 열과 발생이 적으나 봉지를 씌우지 않으면 착색이 잘되지 않고 반점 형태의 생리장해가 매우 많이 발생하므로 외관이 불량하다.  수확 전 낙과가 심하여 생산은 불안정한 편이고 수량은 10a당 2,800㎏정도로 추정된다.   </t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>보리(찰보리)</t>
+          <t>알찬보리</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>찰성 내도복 다수성 품종을 육성하기 위하여 1978년 찰성이며 쌀보리인 ’마산과맥’을 인자친으로 하고, 내도복 광지역 다수성 특성을 도입하고자 반복친으로 ’강보리’를 여교잡하여 강보리를 닮은 찰성 계통을 육성하였다. 1982~1983년에 생산력검정시험에 공시한 결과 우수성이 인정되어 ’수원227호’로 계통명을 부여하였다. 1984년 지역적응시험을 실시한 결과 강간성이고 직립이며 내도복성이 강하고 다수성이며, 특히 찰성으로 취반특성 및 콜레스테롤 억제효과 등 식품 영양학적 특성이 양호하여 1984년에 장려품종으로 결정함과 동시에 ’찰보리’로 명명하였다.</t>
+          <t>알찬보리는 1975년에 미국에서 보리 웅성불임집단을 도입하여 1976년부터 우리나라 남부지방의 답리작에 적합한 보리 조숙 내습 다수성 신품종 육성을 목표로 순환선발집단육성에 노력한 결과 RSPYB1(보리순환선발집단 영남1호)를 육성하였다. 그중 조숙 다수성으로 유망시된 RSPYB1-424계통을 1978~1981년 4개년간 생산력 검정시험과 특성검정 시험을 실시한 바 조숙 다수성으로 우수성이 인정되어 이를 ‘밀양22호’의 계통명으로 1982~1983년 2개년에 걸쳐 남부지역의 전작지대 6개소와 답리작지대 8개소에서 지역적응시험을 실시한 결과 조숙이면서 내도복 다수성 계통으로 인정되어 1983년 11월 농수산부 주요농작물 종자협의회에서 남부지방의 새로운 장려품종으로 결정됨과 아울러 품종명을 ‘알찬보리’로 명명하여 농가에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>꽃양배추</t>
+          <t>사과(골든데리셔스)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>꽃양배추를 크게 나누면 식용 양배추와 같이 잎이 둥근 환엽(丸葉, round-leaf type)과 잎의 가장자리가 오그라진 축면(縮面, wavy-leaf type)의 두 계통으로 나눌 수 있고 또한 절화용도 개발되어 있다. 환엽종이 축면종보다 생육이 강건하고 내한성이 강하며 빨리 자란다. 또한 포기의 크기에 따라 소형(포기 직경 20cm), 중형(포기 직경 25cm), 대형(포기 직경 30cm이상)으로 나눌 수도 있다.   축면계 품종  의(衣)시리즈는 소형 일대교배 계통으로서 잎모양이 좋고 잎줄기가 짧으며 키가 작은 특징을 가지고 있어 화단용으로 적합하다. 품종으로는 바깥쪽 잎이 진한 녹색이고 착색부위가 밝은 선홍색을 띠며 내한성이 강한 홍의(紅衣)와 순백색의 설의(雪衣)가 있다. 치도리시리즈(Chidori series)는 키가 작은 왜성 계통으로서 포엽색은 분홍, 적색, 백색이 있으며 다른 계통에 비해 온도가 높아도 착색이 잘되는 특성을 가지고 있다. 코랄시리즈(Coral series) 중 프린스 품종은 중앙이 백색이고 퀸은 중앙이 적색으로 나타난다. 무(舞)시리즈는 중형 일대교배 계통으로서 가장자리 잎이 밝은 녹색인 홍무(紅舞), 엽수가 많으며 밝은 농도색으로 착색되는 도무(桃舞) 등의 품종이 있다. 피콕시리즈(Peacock series)는 키가 작으며 톱니모양의 결각이 깊은 계통으로서 적색과 백색 품종이 있다. 스패로시리즈(Sparrow series)는 치도리나 엠페러시리즈에 비해 포기가 크고 초형이 치밀한 계통으로서 적색과 백색 품종이 있다. 이외에 착색이 명확한 홍파(紅波), 포엽색이 적색과 백색이 있는 에메롤시리즈, 카모메시리즈, 엠페러시리즈 등이 있다.   환엽계 품종  쓰즈미(つづみ)시리즈는 포기 모양이 균형미가 있어 화단용으로 적합하며 옮겨 심어도 잘 견딘다. 품종으로는 선홍색으로 내한성이 강한 홍(紅)쓰즈미, 중앙부가 선홍색이고 중간부가 도색인 도(桃)쓰즈미, 순백색으로 내한성이 강하고 포기모양이 좋은 백(白)쓰즈미가 있다.  화(華)시리즈는 소형 왜성종으로 착색부위가 큰 것이 특징이며, 홍화(紅華) 품종은 농홍색으로 내한성이 강하고 설화(雪華)는 순백색으로 특히 착색부위가 크다. 면(綿)시리즈는 초장이 작고 안쪽 착색부위의 잎이 아름다우며 내한성이 강한 계통으로서 홍면(紅綿) 품종은 진한 적색으로 강건하며 설면(雪綿)은 순백색으로 잎이 두텁고 왜성이다. 다이너스티시리즈(Dynasty series)는 반환엽(semi-round leaves) 계통으로서 초장이 30cm내외로 크며 초형이 치밀한 특성을 가지고 있다. 품종으로는 핑크, 레드, 화이트 등이 있다. 록(鹿)시리즈의 품종으로는 분홍색으로 착색이 잘 되며 비교적 소형인 홍록(紅鹿)과 백색으로 소형인 백록(白鹿)이 있다. 토(兎)시리즈의 품종으로는 농적색으로 착색이 빠르며 소형인 적토(赤兎)와 백색으로 잎수가 많고 착색이 빠른 白兎가 있다. 이외에 잎이 작은 소형 계통으로 적색과 백색 품종을 가진 피젼시리즈, 조생종으로 초형이 치밀하며 진분홍색인 로즈보우케이뷰(Rose Bouquet) 등이 있다.  절화용 품종  학(鶴)시리즈(환엽계)가 있으며 홍학(紅鶴) 품종은 홍색의 고성종으로 이 품종은 질소과용을 피해야 하며, 백학(白鶴)은 백색으로 초장이 긴 것이 특징이다. 이외에 왜화제 처리시 화단용으로 이용이 가능한 초몽(初夢), 초장이 80cm정도이고 화색이 우수한 청자(晴姿) 등의 품종이 있다.</t>
+          <t xml:space="preserve">  생육특성   ’골든데리셔스’는 수세가 강하고 수자는 개장성을 나타낸다. 재식 후 일찍부터 결실이 되며 풍산성이고 해거리가 적다.  개화기는 ’후지’와 거의 같은 시기이며 교배친화성이 좋아 수분수로 이용할 수 있다. 단, ’육오’품종과는 불친화성이다.   과실 특성   숙기는 10월 상순인 중생종으로 수원지방에서의 수확기는 10월 9일경이다. 과중은 250∼300g 정도이며 과형은 장원형이다.  과피색은 황색으로 동녹발생이 심하다. 과육색은 황백색이며 육질이 연하고 과즙이 많으며 당도는 13.0°Bx이고 산도는 0.30%로 단맛과 신맛이 적당하여 맛은 좋은 편이다.   수량성 및 상품성   ’골든데리셔스’는 조기결실성이고 수량성이 3,500㎏/10a 로 풍산성인 품종이다. 수확전낙과 등 다른 생리장해는 적으나 동녹발생이 심하여 봉지재배를 하지 않으면 상품과 생산이 어렵다. 과실의 저장성은 상온저장으로 30일 정도로 약한 편이며 상온저장고에서 12월이 지나면 품질이 매우 떨어진다.  </t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>사과(홍월)</t>
+          <t>대진보리</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t xml:space="preserve">  수체 및 결실성   수세는 약하고 수자는 개장성이다. ’홍옥’과 유사한 특성을 가지며 가지가 가늘고 늘어진다. 단과지 및 중과지에 화아가 많이 형성되고 액화아 발생도 많아 풍산성이다. 가지가 늘어지기 쉬우므로 결과지가 쇠약해지기 쉽다. 개화기는 ’후지’와 같아 수원 지방에서의 만개기는 5월 6일 경이다.   과실 특성   과실의 크기는 250∼300g정도, 과형은 원 또는 장원형, 과피는 농홍색 줄무늬로 착색된다. 육 질이 연하고 당도가 높고 산미가 약간 있어 맛은 좋은 편이다. 7월 중순부터 과점을 중심으로 붉은 점이 생기고 그 후 과육 조직이 죽고 그 부분이 갈라지므로 상품성이 있는 과실을 생산하려면 일찍 봉지를 씌워야 한다.  ’쓰가루’ 보다 약 한달 늦은 9월 하순∼10월 상 순에 성숙되는 품종으로 상온 저장력은 ’쓰가루’와 같이 약한 편이다.   내병충성 및 기타 특성   점무늬낙엽병 및 겹무늬썩음병에 강한 편이다. 동녹 및 열과 발생이 적으나 봉지를 씌우지 않으면 착색이 잘되지 않고 반점 형태의 생리장해가 매우 많이 발생하므로 외관이 불량하다.  수확 전 낙과가 심하여 생산은 불안정한 편이고 수량은 10a당 2,800㎏정도로 추정된다.   </t>
+          <t>대진보리는 1977년 양질 내습성 밀양11호에 내도복 다수성 60호를 인공교배하여 1978~1985년에 걸쳐 계통육성을 해오던 중 재배특성이 우량한 YB984-B-B-B-9-2-3-1 계통을 선발하여 1986~1987 2년간 생산력검정시험을 실시한 바 조숙 다수성으로 유망시 되었다. 따라서 이 계통을 밀양38호의 계통명으로 지역적응시험에 1988~1990 3년간 공시하여 시험한 결과 조숙 내도복 양질 다수성 계통임이 확인되어 농림수산부의 1990 주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 ‘대진보리’로 명명하여 영호남 지역의 평야지대에 보급하게 되었다.</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>알찬보리</t>
+          <t>보리(올보리)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>알찬보리는 1975년에 미국에서 보리 웅성불임집단을 도입하여 1976년부터 우리나라 남부지방의 답리작에 적합한 보리 조숙 내습 다수성 신품종 육성을 목표로 순환선발집단육성에 노력한 결과 RSPYB1(보리순환선발집단 영남1호)를 육성하였다. 그중 조숙 다수성으로 유망시된 RSPYB1-424계통을 1978~1981년 4개년간 생산력 검정시험과 특성검정 시험을 실시한 바 조숙 다수성으로 우수성이 인정되어 이를 ‘밀양22호’의 계통명으로 1982~1983년 2개년에 걸쳐 남부지역의 전작지대 6개소와 답리작지대 8개소에서 지역적응시험을 실시한 결과 조숙이면서 내도복 다수성 계통으로 인정되어 1983년 11월 농수산부 주요농작물 종자협의회에서 남부지방의 새로운 장려품종으로 결정됨과 아울러 품종명을 ‘알찬보리’로 명명하여 농가에 보급하게 되었다.</t>
+          <t>줄기의 굵기는 수원18호보다 다소 가늘고 부흥과 같은 정도이다. 잎은 좁고 짧으며 직립형이고 주의 개폐는 수원18호와 같이 폐형이다. 성숙시 껍질의 색이 매우 선명하고 까락은 많고 긴 편이며 부흥과 비슷하다. 이삭은 직립이며 부흥과 같은 형태이나 밀도는 부흥보다 다소 성기게 붙어 있다. 특히 다른 품종과는 달리 이삭목이 꼬불꼬불하게 굽어져 있는 것이 특징이다</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>사과(골든데리셔스)</t>
+          <t>사과(서광)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve">  생육특성   ’골든데리셔스’는 수세가 강하고 수자는 개장성을 나타낸다. 재식 후 일찍부터 결실이 되며 풍산성이고 해거리가 적다.  개화기는 ’후지’와 거의 같은 시기이며 교배친화성이 좋아 수분수로 이용할 수 있다. 단, ’육오’품종과는 불친화성이다.   과실 특성   숙기는 10월 상순인 중생종으로 수원지방에서의 수확기는 10월 9일경이다. 과중은 250∼300g 정도이며 과형은 장원형이다.  과피색은 황색으로 동녹발생이 심하다. 과육색은 황백색이며 육질이 연하고 과즙이 많으며 당도는 13.0°Bx이고 산도는 0.30%로 단맛과 신맛이 적당하여 맛은 좋은 편이다.   수량성 및 상품성   ’골든데리셔스’는 조기결실성이고 수량성이 3,500㎏/10a 로 풍산성인 품종이다. 수확전낙과 등 다른 생리장해는 적으나 동녹발생이 심하여 봉지재배를 하지 않으면 상품과 생산이 어렵다. 과실의 저장성은 상온저장으로 30일 정도로 약한 편이며 상온저장고에서 12월이 지나면 품질이 매우 떨어진다.  </t>
+          <t xml:space="preserve">주요 특성   나무 특성   ‘서광’의 수세는 중정도이고, 수자는 반개장성이다. 단과지 및 중과지에 꽃눈이 잘 형성된다. 꽃가루가 많고 주요 재배 품종과 교배친화성이므로 수분수로도 유망하다. 포장에서 달관조사한 반점낙엽병에 대한 내병성은 중정도이나 겹무늬썩음병에는 강한 저항성을 나타내었다.    과실 특성   ‘서광’의 숙기는 8월중순으로 쓰가루보다 15일 빠르고, 스퍼얼리브레이즈와 거의 같은시기이다. 과형은 원형이고 과피색은 황록색 바탕에 선홍색 줄무늬로 착색되어 외관이 매우 미려하고 과중은 300~350g으로 쓰가루에 비해 크다. 과즙의 당도는 13.1 %로 쓰가루와 같고 산도는 0.48％로 약간 높아 감산이 조화된 맛을 나타낸다.    수량성 및 상품성  쓰가루보다 숙기가 20일 정도 빠르고 수확전 낙과가 없으며 착색이 양호하고 겹무늬썩음병 등 각종 병해에 강하다. 동녹 및 열과 발생이 적고 수확전낙과 발생도 적어 수량은 10a당 3,000㎏로 매년 안정된 생산을 할 수 있다    </t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>대진보리</t>
+          <t>보리(알보리)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>대진보리는 1977년 양질 내습성 밀양11호에 내도복 다수성 60호를 인공교배하여 1978~1985년에 걸쳐 계통육성을 해오던 중 재배특성이 우량한 YB984-B-B-B-9-2-3-1 계통을 선발하여 1986~1987 2년간 생산력검정시험을 실시한 바 조숙 다수성으로 유망시 되었다. 따라서 이 계통을 밀양38호의 계통명으로 지역적응시험에 1988~1990 3년간 공시하여 시험한 결과 조숙 내도복 양질 다수성 계통임이 확인되어 농림수산부의 1990 주요농작물 종자협의회에서 새로운 장려품종으로 결정하고 ‘대진보리’로 명명하여 영호남 지역의 평야지대에 보급하게 되었다.</t>
+          <t>알보리의 잎색은 부흥이나 올보리와 비슷한 녹색이고 잎폭과 잎길이는 중정도이며 줄기색은 담녹색으로 굵기는 올보리보다 굵은 편이다. 이삭모양은 육각형이며 까락이 길고, 곡립의 크기는 올보리와 부흥보다는 대립종에 속한다</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>보리(올보리)</t>
+          <t>저농약 인증</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>줄기의 굵기는 수원18호보다 다소 가늘고 부흥과 같은 정도이다. 잎은 좁고 짧으며 직립형이고 주의 개폐는 수원18호와 같이 폐형이다. 성숙시 껍질의 색이 매우 선명하고 까락은 많고 긴 편이며 부흥과 비슷하다. 이삭은 직립이며 부흥과 같은 형태이나 밀도는 부흥보다 다소 성기게 붙어 있다. 특히 다른 품종과는 달리 이삭목이 꼬불꼬불하게 굽어져 있는 것이 특징이다</t>
+          <t xml:space="preserve">01. 친환경 농산물 인증제도란?  소비자에게 보다 안전한 친환경농산물을 전문인증기관이 엄격한 기준으로 선별·검사하여 정부가  그 안전성을 인증해 주는 제도입니다.    02. 친환경농산물이란?  환경을 보전하고 소비자에게 보다 안전한 농산물을 공급하기 위해 농약과 화학비료 및 사료첨가제  등 화학자재를 전혀 사용하지 아니하거나, 최소량 만을 사용하여 생산한 농산물을 말합니다.    03. 친환경농산물 관리  토양과 물은 물론 생육과 수확 등 생산 및 출하단계에서 인증기준을 준수 했는지의 엄격한 품질  검사와 시중 유통품에 대해서도 허위표시를 하거나 규정을 지키지 않는 인증품이 없도록 철저한  사후관리를 하고 있습니다.    04. 친환경농산물의 종류 및 기준  친환경농산물 인증 종류(3종류) - 유기농산물, 무농약농산물, 저농약농산물  ※ 축산물도 새로운 인증기준을 마련하여 인증을 받게 됩니다 .- 유기축산물, 무항생제축산물로 표기 가능  </t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>사과(서광)</t>
+          <t>무농약인증</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t xml:space="preserve">주요 특성   나무 특성   ‘서광’의 수세는 중정도이고, 수자는 반개장성이다. 단과지 및 중과지에 꽃눈이 잘 형성된다. 꽃가루가 많고 주요 재배 품종과 교배친화성이므로 수분수로도 유망하다. 포장에서 달관조사한 반점낙엽병에 대한 내병성은 중정도이나 겹무늬썩음병에는 강한 저항성을 나타내었다.    과실 특성   ‘서광’의 숙기는 8월중순으로 쓰가루보다 15일 빠르고, 스퍼얼리브레이즈와 거의 같은시기이다. 과형은 원형이고 과피색은 황록색 바탕에 선홍색 줄무늬로 착색되어 외관이 매우 미려하고 과중은 300~350g으로 쓰가루에 비해 크다. 과즙의 당도는 13.1 %로 쓰가루와 같고 산도는 0.48％로 약간 높아 감산이 조화된 맛을 나타낸다.    수량성 및 상품성  쓰가루보다 숙기가 20일 정도 빠르고 수확전 낙과가 없으며 착색이 양호하고 겹무늬썩음병 등 각종 병해에 강하다. 동녹 및 열과 발생이 적고 수확전낙과 발생도 적어 수량은 10a당 3,000㎏로 매년 안정된 생산을 할 수 있다    </t>
+          <t xml:space="preserve">새로운 친환경농산물 인증마크는 친환경농산물의 주 구매자인 주부를 대상으로 밝고 건강함을 상징할 수 있는 마크로 개발하였습니다. 　 &gt; 중첩된 원의 기본 형태는 인간과 자연의 조화의미 &gt; 좌측원의 청색은 소비자 &gt; 우측원의 녹색은 생산자 &gt; 상단 잎사귀 모양의 연두색은 자연을 상징 &gt; 겹쳐진 백색 바탕은 생명의 모태인 씨앗을 상징 &gt; 전체적인 형태는 우리 삶의 근간인 건강한 토지위에서 환경친화적 농법을 통하여 생산된 농산물을나타냅니다. </t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>보리(알보리)</t>
+          <t>유기농인증</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>알보리의 잎색은 부흥이나 올보리와 비슷한 녹색이고 잎폭과 잎길이는 중정도이며 줄기색은 담녹색으로 굵기는 올보리보다 굵은 편이다. 이삭모양은 육각형이며 까락이 길고, 곡립의 크기는 올보리와 부흥보다는 대립종에 속한다</t>
+          <t xml:space="preserve">지정대상 및 지정기준  가.지정대상  - 친환경농업육성법 제17조의2에 따라 인증에 필요한 인력과 시설을 갖춘 자  - 외국에서 생산하여 국내로 수입되는 농산물에 대하여 친환경농산물 인증을 하고자 할 때에는 당해  국가에서 친환경농산물 인증에 필요한 인력과 시설을 갖춘 자를 인증기관으로 지정할 수 있다.  나. 지정기준  - 조직·인력, 시설, 인증업무규정이 적합하여야 한다.  ※ 규칙 제11조의 별표 4 참조    지정절차 가. 인증기관지정신청서 및 첨부서류(규칙 제10조 관련)  - 인증기관지정신청서(별지 제3호서식)  - 법인등기부등본(법인인 경우에 한함)  - 인증업무의 범위 등을 기재한 사업계획서  - 인증기관의 지정기준을 갖추었음을 증명할 수 있는 서류  나. 인증기관의 지정절차  - 국립농산물품질관리원장은 인증기관의 지정신청을 받은 때에는 심사계획서를 작성하여 신청인  에게 통지하고,  - 심사계획에 따라 인증신청서, 첨부서류 및 인증기관 지정기준에 적합한 지의 여부를 심사하며,  - 심사결과 지정기준에 적합한 경우에는 인증기관이 수행하는 업무의 범위 등을 정하여 인증기관  지정서(별지 4호 서식)를 교부하고 고시    지정취소등의 행정처분 가. 인증심사  - 인증기관이 다음과 같은 위반행위를 한 경우에는 인증기관지정을 취소하거나 그 사업의 전부 또는  일부의 정지를 명할 수 있다.  * 사위 기타 부정한 방법으로 지정을 받은 경우  * 정당한 사유없이 1년이상 계속하여 인증을 행하지 아니한 경우  * 인증기관 지정기준에 적합하지 아니하게 된 경우  * 인증품이 인증기준에 맞지 아니한 것으로 인정된 경우로서 그 원인이 인증기관의 고의 또는 중대한  과실로 인하여 발생한 경우  ※ 인증기관의 행정처분기준은 별표 7 참조   </t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>저농약 인증</t>
+          <t>복숭아(탄저병)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t xml:space="preserve">01. 친환경 농산물 인증제도란?  소비자에게 보다 안전한 친환경농산물을 전문인증기관이 엄격한 기준으로 선별·검사하여 정부가  그 안전성을 인증해 주는 제도입니다.    02. 친환경농산물이란?  환경을 보전하고 소비자에게 보다 안전한 농산물을 공급하기 위해 농약과 화학비료 및 사료첨가제  등 화학자재를 전혀 사용하지 아니하거나, 최소량 만을 사용하여 생산한 농산물을 말합니다.    03. 친환경농산물 관리  토양과 물은 물론 생육과 수확 등 생산 및 출하단계에서 인증기준을 준수 했는지의 엄격한 품질  검사와 시중 유통품에 대해서도 허위표시를 하거나 규정을 지키지 않는 인증품이 없도록 철저한  사후관리를 하고 있습니다.    04. 친환경농산물의 종류 및 기준  친환경농산물 인증 종류(3종류) - 유기농산물, 무농약농산물, 저농약농산물  ※ 축산물도 새로운 인증기준을 마련하여 인증을 받게 됩니다 .- 유기축산물, 무항생제축산물로 표기 가능  </t>
+          <t xml:space="preserve">병원균은 병든 과실 및 결과지의 조직속에서 자낭각 및 균사로 월동후, 분생포자를 형성하여 1차전염원이 된다. 병발생은 6월 중순 이후 장마기에 시작되며, 분생포자의 전반은 비가 많은 7~8월에 주로 빗방울에 의해 이루어지고, 곤충이나 새들에 의해 이루어지기도 한다. 과실의 성숙기 및 수확기에 병이 많이 발생한다.   병발생이 심한 과수원에서는 과실에 봉지를 씌워 재배한다. 등록약제는 없으며, 병 발생 초기에 사과나무탄저병 방제 약제를 살포하면병 발생을 억제할 수 있으나 약제 살포시는 복숭아나무식물체에 대한 약해 여부를 검토한 후에 사용해야만 한다.  </t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>무농약인증</t>
+          <t>자두(산타로사)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t xml:space="preserve">새로운 친환경농산물 인증마크는 친환경농산물의 주 구매자인 주부를 대상으로 밝고 건강함을 상징할 수 있는 마크로 개발하였습니다. 　 &gt; 중첩된 원의 기본 형태는 인간과 자연의 조화의미 &gt; 좌측원의 청색은 소비자 &gt; 우측원의 녹색은 생산자 &gt; 상단 잎사귀 모양의 연두색은 자연을 상징 &gt; 겹쳐진 백색 바탕은 생명의 모태인 씨앗을 상징 &gt; 전체적인 형태는 우리 삶의 근간인 건강한 토지위에서 환경친화적 농법을 통하여 생산된 농산물을나타냅니다. </t>
+          <t xml:space="preserve">과형은 심장형으로 완숙하면 농자적색이 되며 과육은 황색이다. 육질은 유연다즙하고 감미가 높으나 산미가 다소 강하다. 향기는 자두품종중에서 가장 강한 품종이다. 착색이 빠르나 적숙기는 과경부위의 과피에 윤상형의 무늬가 나타났을 때가 적숙기이다.   생리적 낙과가 많은 것이 재배상 가장 큰 결점이다. 가지 발생이 우수하므로 전정시 절단전정은 극히 약하게, 주로 솎음전정을 주체로 실시한다. 거목으로 자라므로 재식거리를 넓게한 후 수관내부까지 광선이 충분히 들어가도록 나무를 넓게 정지한다. 풍흉의 안정화 및 적정 수량을 확보, 유지하기 위해 적과가 필요하다. 질소과다 및 밀식재배가 되지 않도록 주의한다. 착색이 빠르므로 조기 수확되어 출하되지 않도록 한다.  </t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>유기농인증</t>
+          <t>낙영보리</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t xml:space="preserve">지정대상 및 지정기준  가.지정대상  - 친환경농업육성법 제17조의2에 따라 인증에 필요한 인력과 시설을 갖춘 자  - 외국에서 생산하여 국내로 수입되는 농산물에 대하여 친환경농산물 인증을 하고자 할 때에는 당해  국가에서 친환경농산물 인증에 필요한 인력과 시설을 갖춘 자를 인증기관으로 지정할 수 있다.  나. 지정기준  - 조직·인력, 시설, 인증업무규정이 적합하여야 한다.  ※ 규칙 제11조의 별표 4 참조    지정절차 가. 인증기관지정신청서 및 첨부서류(규칙 제10조 관련)  - 인증기관지정신청서(별지 제3호서식)  - 법인등기부등본(법인인 경우에 한함)  - 인증업무의 범위 등을 기재한 사업계획서  - 인증기관의 지정기준을 갖추었음을 증명할 수 있는 서류  나. 인증기관의 지정절차  - 국립농산물품질관리원장은 인증기관의 지정신청을 받은 때에는 심사계획서를 작성하여 신청인  에게 통지하고,  - 심사계획에 따라 인증신청서, 첨부서류 및 인증기관 지정기준에 적합한 지의 여부를 심사하며,  - 심사결과 지정기준에 적합한 경우에는 인증기관이 수행하는 업무의 범위 등을 정하여 인증기관  지정서(별지 4호 서식)를 교부하고 고시    지정취소등의 행정처분 가. 인증심사  - 인증기관이 다음과 같은 위반행위를 한 경우에는 인증기관지정을 취소하거나 그 사업의 전부 또는  일부의 정지를 명할 수 있다.  * 사위 기타 부정한 방법으로 지정을 받은 경우  * 정당한 사유없이 1년이상 계속하여 인증을 행하지 아니한 경우  * 인증기관 지정기준에 적합하지 아니하게 된 경우  * 인증품이 인증기준에 맞지 아니한 것으로 인정된 경우로서 그 원인이 인증기관의 고의 또는 중대한  과실로 인하여 발생한 경우  ※ 인증기관의 행정처분기준은 별표 7 참조   </t>
+          <t>대립 양질다수성 신품종 육성을 목표로 하여 1985년에 영남농업 시험장에서 대립 내재해 다수성인 BAS7-6-2계통을 모본으로 하여 조숙 내도복성인 오월보리를 부본으로 인공교배하여 1986년부터 3년간 답리작에서 집단육종법으로 양성하고 잡종 제4세대 이후는 계통육종법에 의해 우량계통을 선발 고정해 오던 중 YB2529-3B-3계통이 우수하여 1990년부터 2년간 생산력검정시험을 실시한 결과 조숙 대립이며 수량성이 높아서 ‘밀양60호’의 계통명을 부여하여 1992~1994년까지 3개년간의 지역적응시험과 1994년 농가실증시험을 실시한 결과 조숙 대립 내도복 다수성이며 전분함량이 높고 정맥비율도 높은 우수한 계통임이 확인되어 1994년 12월에 농림수산부의 주요농작물 종자협의회에서 새로운 장려품종으로 결정되었다.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>복숭아(탄저병)</t>
+          <t>열전도 계수</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t xml:space="preserve">병원균은 병든 과실 및 결과지의 조직속에서 자낭각 및 균사로 월동후, 분생포자를 형성하여 1차전염원이 된다. 병발생은 6월 중순 이후 장마기에 시작되며, 분생포자의 전반은 비가 많은 7~8월에 주로 빗방울에 의해 이루어지고, 곤충이나 새들에 의해 이루어지기도 한다. 과실의 성숙기 및 수확기에 병이 많이 발생한다.   병발생이 심한 과수원에서는 과실에 봉지를 씌워 재배한다. 등록약제는 없으며, 병 발생 초기에 사과나무탄저병 방제 약제를 살포하면병 발생을 억제할 수 있으나 약제 살포시는 복숭아나무식물체에 대한 약해 여부를 검토한 후에 사용해야만 한다.  </t>
+          <t xml:space="preserve"> 온도가 높은 곳에서 온도가 낮은 곳으로 열이 직접 이동하는 현상이다. 온도가 같아질때까지 전도는 계속된다. 열전도 계수는 위치에 따른 온도 변화(dT/dx)에 의해 전달되는 열량(jU)의 관계를 지칭하는 물성이다.  ▶응용 나노튜브  탄소 원자사이의 결합은 현재 쓰이고 있는 실리콘보다 훨씬 더 강하고 열전전도가 실리콘보다 훨씬 높아 열을 잘 방출하므로 반도체 소자가 작동하면서 뜨거워지는 문제가 쉽게 해결된다. </t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>자두(산타로사)</t>
+          <t>역위</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t xml:space="preserve">과형은 심장형으로 완숙하면 농자적색이 되며 과육은 황색이다. 육질은 유연다즙하고 감미가 높으나 산미가 다소 강하다. 향기는 자두품종중에서 가장 강한 품종이다. 착색이 빠르나 적숙기는 과경부위의 과피에 윤상형의 무늬가 나타났을 때가 적숙기이다.   생리적 낙과가 많은 것이 재배상 가장 큰 결점이다. 가지 발생이 우수하므로 전정시 절단전정은 극히 약하게, 주로 솎음전정을 주체로 실시한다. 거목으로 자라므로 재식거리를 넓게한 후 수관내부까지 광선이 충분히 들어가도록 나무를 넓게 정지한다. 풍흉의 안정화 및 적정 수량을 확보, 유지하기 위해 적과가 필요하다. 질소과다 및 밀식재배가 되지 않도록 주의한다. 착색이 빠르므로 조기 수확되어 출하되지 않도록 한다.  </t>
+          <t>유전자의 배열순서가 부분적으로 역전된 돌연변이. 원핵생물에서의 DNA분자의 역위는 유전자의 연관분석이나 이형두가닥사슬DNA의 전자현미경적 해석 등에 의해 발견이 가능하고, 원핵행물의 염색체 레벨의 역위는 핵형(核型)의 변화와 감수분열의 파키텐기(pachytenestage)에서의 접합 또는 그 후의 염색체행동의 이상에 의해 발견할 수 있다.   침샘염색체에서는 그 줄무늬 배열의 역전에서 곧 식별이 가능하다. 역위가 일어난 부분이 염색체의 말단을 포함하는가 포함하지 않는가에 따라 말단형과 개재형(介在型)으로 나뉘는데, 대부분은 개재형이다.   동원체를 포함하여 역위가 일어난 경우를 협동원체역위(挾動原體逆位), 포함하지 않는 경우를 편동원체역위(偏動原體逆位)라 한다. 협동원체역위에서 양 팔의 역위부분의 길이가 크게 다를 때에는 염색체의 모양에 변화가 일어난다.   역위이형접합자(inversion heterozygote)는 감수분열이나 침샘염색체에서 접합이 개개 상동(相同) 부분끼리의 사이에서 일어나므로 역위 부분에 고리를 형성한다. 감수분열할 때 역위 부분에 교차가 일어나면 협동원체역위의 경우는 한 쪽은 중복, 또 한 쪽은 결실을 가진 1쌍의 염색분체가 만들어지고, 편동원체역위의 경우는 2동원체염색분체와 무동원체염색분체를 만든다.   2동원체염색분체는 나중에 염색분체다리를 만들고 무동원체염색분체는 지체염색체가 되어 곧이어 소실한다. 두 번째 역위가 일어나는 경우, 처음에 일어난 역위부분과 전혀 다른 위치에서 일어나는 것을 독립역위(independent inversion), 첫 번째 역위가 일어난 부분 중에서 먼저보다 작은 부분적 역위가 다시 일어나는 것을 포함역위(included inversion), 첫 번째 역위의 일부분을 포함하여 두 번째 역위가 일어나는 것을 중복역위(overlapping inversion)라 한다.</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>낙영보리</t>
+          <t>감귤(환실금감)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>대립 양질다수성 신품종 육성을 목표로 하여 1985년에 영남농업 시험장에서 대립 내재해 다수성인 BAS7-6-2계통을 모본으로 하여 조숙 내도복성인 오월보리를 부본으로 인공교배하여 1986년부터 3년간 답리작에서 집단육종법으로 양성하고 잡종 제4세대 이후는 계통육종법에 의해 우량계통을 선발 고정해 오던 중 YB2529-3B-3계통이 우수하여 1990년부터 2년간 생산력검정시험을 실시한 결과 조숙 대립이며 수량성이 높아서 ‘밀양60호’의 계통명을 부여하여 1992~1994년까지 3개년간의 지역적응시험과 1994년 농가실증시험을 실시한 결과 조숙 대립 내도복 다수성이며 전분함량이 높고 정맥비율도 높은 우수한 계통임이 확인되어 1994년 12월에 농림수산부의 주요농작물 종자협의회에서 새로운 장려품종으로 결정되었다.</t>
+          <t xml:space="preserve"> 과형은 구형, 과정부는 과경부에 비해 약간 편평하다. 종, 횡경 모두 20㎜ 전후이다. 평균 과중은 4.5g 정도이다. 과피는 극히 매끈하고 등황색이다. 두께는 약 1.5㎜ 로 얇다. 녹색과는 박피가 쉬우나 성숙하면 알베도층이 두꺼워지고, 박피가 힘들다.   양낭막은 과실이 커짐에 따라 두껍고 딱딱한 감을 준다. 양낭수는 6개 전후, 과심이 없다. 사낭(과립)은 극히 작고 유연하다. 함핵수는 1~6개 있으나 3~4개의 것이 많다. 종자의 크기는 작다. 다배성도 있으나 영파금감에 비해서 적다. 배의 색은 녹색이다.   강한 가지에는 길이가 5~6㎜정도의 비교적 큰 가지가 생긴다. 마디길이는 다른 금감류에 비해서 긴편으로 10.5㎜ 정도된다. 금감의 공통점이라 할 수 있지만 환실금감도 가지의 선단부에 눈이 밀착하여 가지가 밀생하기 쉽다.   잎의 모양은 영파금감과 비슷하나 작다. 엽신의 길이는 약 45㎜, 폭은 18㎜ 정도이다. 엽병의 길이는 8.5㎜ 정도 익엽은 작으나 확실히 구분되지 않는다. 영파금감과 같이 엽병과의 구별이 확실하지 않다. 꽃의 모양과 크기는 영파금감과 비슷하다.</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>열전도 계수</t>
+          <t>자포니카</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 온도가 높은 곳에서 온도가 낮은 곳으로 열이 직접 이동하는 현상이다. 온도가 같아질때까지 전도는 계속된다. 열전도 계수는 위치에 따른 온도 변화(dT/dx)에 의해 전달되는 열량(jU)의 관계를 지칭하는 물성이다.  ▶응용 나노튜브  탄소 원자사이의 결합은 현재 쓰이고 있는 실리콘보다 훨씬 더 강하고 열전전도가 실리콘보다 훨씬 높아 열을 잘 방출하므로 반도체 소자가 작동하면서 뜨거워지는 문제가 쉽게 해결된다. </t>
+          <t>낟알이 짧고 둥글다고 해서 단립종(短粒種)이라고도 함. 기름지고 찰기가 있으며, 한국과 일본 등지에서 주식으로이용. 한국, 일본, 중국, 동북3성, 유럽 등 비교적 고위도 지역에서 재배되며, 전 세계 쌀 생산량의 약 10% 차지.</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>역위</t>
+          <t>인디카</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>유전자의 배열순서가 부분적으로 역전된 돌연변이. 원핵생물에서의 DNA분자의 역위는 유전자의 연관분석이나 이형두가닥사슬DNA의 전자현미경적 해석 등에 의해 발견이 가능하고, 원핵행물의 염색체 레벨의 역위는 핵형(核型)의 변화와 감수분열의 파키텐기(pachytenestage)에서의 접합 또는 그 후의 염색체행동의 이상에 의해 발견할 수 있다.   침샘염색체에서는 그 줄무늬 배열의 역전에서 곧 식별이 가능하다. 역위가 일어난 부분이 염색체의 말단을 포함하는가 포함하지 않는가에 따라 말단형과 개재형(介在型)으로 나뉘는데, 대부분은 개재형이다.   동원체를 포함하여 역위가 일어난 경우를 협동원체역위(挾動原體逆位), 포함하지 않는 경우를 편동원체역위(偏動原體逆位)라 한다. 협동원체역위에서 양 팔의 역위부분의 길이가 크게 다를 때에는 염색체의 모양에 변화가 일어난다.   역위이형접합자(inversion heterozygote)는 감수분열이나 침샘염색체에서 접합이 개개 상동(相同) 부분끼리의 사이에서 일어나므로 역위 부분에 고리를 형성한다. 감수분열할 때 역위 부분에 교차가 일어나면 협동원체역위의 경우는 한 쪽은 중복, 또 한 쪽은 결실을 가진 1쌍의 염색분체가 만들어지고, 편동원체역위의 경우는 2동원체염색분체와 무동원체염색분체를 만든다.   2동원체염색분체는 나중에 염색분체다리를 만들고 무동원체염색분체는 지체염색체가 되어 곧이어 소실한다. 두 번째 역위가 일어나는 경우, 처음에 일어난 역위부분과 전혀 다른 위치에서 일어나는 것을 독립역위(independent inversion), 첫 번째 역위가 일어난 부분 중에서 먼저보다 작은 부분적 역위가 다시 일어나는 것을 포함역위(included inversion), 첫 번째 역위의 일부분을 포함하여 두 번째 역위가 일어나는 것을 중복역위(overlapping inversion)라 한다.</t>
+          <t>안남미로 불리며 쌀알이 길쭉하여 장립종(長粒種)이라고도 함. 끈기가 없어 부슬부슬하며, 오므라이스 등 접시용 요리에 쓰임. 인도, 파키스탄, 방글라데시, 중국남부, 베트남, 필리핀, 인도네시아 등지에서주로 재배되며, 전 세계 쌀 생산량의 약 90%차지.</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>감귤(환실금감)</t>
+          <t>이앙재배</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 과형은 구형, 과정부는 과경부에 비해 약간 편평하다. 종, 횡경 모두 20㎜ 전후이다. 평균 과중은 4.5g 정도이다. 과피는 극히 매끈하고 등황색이다. 두께는 약 1.5㎜ 로 얇다. 녹색과는 박피가 쉬우나 성숙하면 알베도층이 두꺼워지고, 박피가 힘들다.   양낭막은 과실이 커짐에 따라 두껍고 딱딱한 감을 준다. 양낭수는 6개 전후, 과심이 없다. 사낭(과립)은 극히 작고 유연하다. 함핵수는 1~6개 있으나 3~4개의 것이 많다. 종자의 크기는 작다. 다배성도 있으나 영파금감에 비해서 적다. 배의 색은 녹색이다.   강한 가지에는 길이가 5~6㎜정도의 비교적 큰 가지가 생긴다. 마디길이는 다른 금감류에 비해서 긴편으로 10.5㎜ 정도된다. 금감의 공통점이라 할 수 있지만 환실금감도 가지의 선단부에 눈이 밀착하여 가지가 밀생하기 쉽다.   잎의 모양은 영파금감과 비슷하나 작다. 엽신의 길이는 약 45㎜, 폭은 18㎜ 정도이다. 엽병의 길이는 8.5㎜ 정도 익엽은 작으나 확실히 구분되지 않는다. 영파금감과 같이 엽병과의 구별이 확실하지 않다. 꽃의 모양과 크기는 영파금감과 비슷하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>자포니카</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>낟알이 짧고 둥글다고 해서 단립종(短粒種)이라고도 함. 기름지고 찰기가 있으며, 한국과 일본 등지에서 주식으로이용. 한국, 일본, 중국, 동북3성, 유럽 등 비교적 고위도 지역에서 재배되며, 전 세계 쌀 생산량의 약 10% 차지.</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>인디카</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>안남미로 불리며 쌀알이 길쭉하여 장립종(長粒種)이라고도 함. 끈기가 없어 부슬부슬하며, 오므라이스 등 접시용 요리에 쓰임. 인도, 파키스탄, 방글라데시, 중국남부, 베트남, 필리핀, 인도네시아 등지에서주로 재배되며, 전 세계 쌀 생산량의 약 90%차지.</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>이앙재배</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
         <is>
           <t xml:space="preserve">못자리에서 모를 키운 후 옮겨 심는 재배양식으로 종류에는 어린모(법씨 파종후 8-12일에 이양), 치묘(20-25일에 이양), 중묘(30-35일에 이앙), 성묘(35일 이후에 이앙) 이있다.
 장점으로는 생육이 균일, 품질 우수, 수량이 높고 생산이 안정적이지만 단점으로 육묘노력과 이앙시간이 많이 소요된다. 
@@ -5427,13 +5391,13 @@
         </is>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
+    <row r="414">
+      <c r="A414" t="inlineStr">
         <is>
           <t>호프</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
+      <c r="B414" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 호프의 원산지는 지중해 연안이라 하며 바빌로니아(기원전 6세기경)나 이집트에서 양조에 야생호프를 사용했다는 주장이 있으나 확실치 않으며, 유럽에서는 승원에서 호프를 재배했다는 기록이 있고(AD 768년), AD 8세기에 Hallentan지방에 호프원을 독일에서는 humuleta, 프랑스에서는 humularia라 불렀다고 한다. 
@@ -5460,13 +5424,13 @@
         </is>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
+    <row r="415">
+      <c r="A415" t="inlineStr">
         <is>
           <t xml:space="preserve">곤약 </t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
+      <c r="B415" t="inlineStr">
         <is>
           <t xml:space="preserve">일반특성 
 식물명 :  곤약(구약)과   명 :  천남성과(Araceae)
@@ -5490,13 +5454,13 @@
         </is>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
+    <row r="416">
+      <c r="A416" t="inlineStr">
         <is>
           <t xml:space="preserve">대마 </t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
+      <c r="B416" t="inlineStr">
         <is>
           <t xml:space="preserve">대마의 분포와 재배 내력 및 형태와 성장 발육과 이용과 환각 성분에 대하여
    식물 명  :  대마(삼)   과   명  :  뽕나무과 (Moraceae)   학   명  :  Cannabis sativa L.   영   명  :  Hemp
@@ -5529,13 +5493,13 @@
         </is>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
+    <row r="417">
+      <c r="A417" t="inlineStr">
         <is>
           <t xml:space="preserve">감차 </t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
+      <c r="B417" t="inlineStr">
         <is>
           <t xml:space="preserve">식물명 : 감 차 과   명 : 범의귀과  학   명 : Hydrangea ssp. 이   명 : 수국차, 감차수국, 토상산
 재배내력 감차는 자생식물이나 사찰주변에서 재배되기도 한다. 일본에서는 4월 8일의 관불회(灌佛會)에 불상에 감차를 뿌리는 의식이 있다. 이날은 각지의 사찰에서 사당(花御堂)의 불상을 꽃으로 장식하고, 誕生 (석가가 탄생했을 때 모습의 불상)에 감차를 끼얹는다. 예불자(參詣者)들은 이 감차를 가지고 돌아가 먹을 갈고, 기세가 센 음력 4월 8일은 길일이요. 髮さげ筮을 다스린다. 라는 노래를 써서 변소에 붙이고 해충구제의 주문으로 삼았다. 
@@ -5552,13 +5516,13 @@
         </is>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
+    <row r="418">
+      <c r="A418" t="inlineStr">
         <is>
           <t xml:space="preserve">복분자 딸기 </t>
         </is>
       </c>
-      <c r="B421" t="inlineStr">
+      <c r="B418" t="inlineStr">
         <is>
           <t xml:space="preserve">식물명 : 복분자딸기   과   명 : 장미과 (Rosaceae)  학   명 : Rubus coreanus Miquel 
 영   명 : blackberry 이   명 (생약명) : 곰의딸, 곰딸 분 포 
@@ -5586,13 +5550,13 @@
         </is>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
+    <row r="419">
+      <c r="A419" t="inlineStr">
         <is>
           <t>천문동</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr">
+      <c r="B419" t="inlineStr">
         <is>
           <t xml:space="preserve">식물명 : 천문동
 과  명 : 백합과 (Liliaceae) 
